--- a/Journaux/Journal-de-Travail_RomainDenis.xlsx
+++ b/Journaux/Journal-de-Travail_RomainDenis.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mat/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ps04egl\Documents\GitHub\P_PassionLecture\Journaux\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{870E8020-B18C-3D4E-AE78-039E36149E00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{206FBD9A-7AF7-48A9-B36C-0E99CB2D5E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Mvap2W10CJFFJsnvkGXSiMLvpngxTMJbJsIKFe7Hzjn0XDcmjGuvBC2FjUCZ/hpRpUhUrG1T4kBlDAIo3yqmSQ==" workbookSaltValue="KXjgXOcsUZI/j7UgPKltzw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="1220" yWindow="500" windowWidth="31240" windowHeight="18160" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -112,12 +112,6 @@
     <t>Autre</t>
   </si>
   <si>
-    <t>EXEMPLE: Mise en place du repo Git et de la structure du projet</t>
-  </si>
-  <si>
-    <t>Nom Prénom</t>
-  </si>
-  <si>
     <t>18.03.2024  au 27.05.2024</t>
   </si>
   <si>
@@ -131,6 +125,18 @@
   </si>
   <si>
     <t>Remarque / problème</t>
+  </si>
+  <si>
+    <t>Denis Romain</t>
+  </si>
+  <si>
+    <t>Renseignement sur le projet</t>
+  </si>
+  <si>
+    <t>Github projet a été fait</t>
+  </si>
+  <si>
+    <t>Commencer a faire le frontend</t>
   </si>
 </sst>
 </file>
@@ -457,80 +463,6 @@
   <dxfs count="17">
     <dxf>
       <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -701,6 +633,80 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -723,7 +729,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -790,7 +796,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-CH"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1004,7 +1010,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-CH"/>
+                <a:endParaRPr lang="fr-FR"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inEnd"/>
@@ -1058,10 +1064,10 @@
                 <c:formatCode>hh\ "h"\ mm\ "min"</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2.7777777777777776E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1.7361111111111112E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1070,13 +1076,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1.7361111111111112E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.10416666666666667</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -1136,7 +1142,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-CH"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1173,7 +1179,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-CH"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1785,18 +1791,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F2213DF1-F6B1-174C-AC17-4E96BE96C00D}" name="Table1" displayName="Table1" ref="A6:G532" totalsRowShown="0" headerRowDxfId="16" tableBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F2213DF1-F6B1-174C-AC17-4E96BE96C00D}" name="Table1" displayName="Table1" ref="A6:G532" totalsRowShown="0" headerRowDxfId="8" tableBorderDxfId="7">
   <autoFilter ref="A6:G532" xr:uid="{F2213DF1-F6B1-174C-AC17-4E96BE96C00D}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{315BA4B4-9BD9-AB4E-8D40-FABFA0BB2AEA}" name="Semaine" dataDxfId="14">
+    <tableColumn id="1" xr3:uid="{315BA4B4-9BD9-AB4E-8D40-FABFA0BB2AEA}" name="Semaine" dataDxfId="6">
       <calculatedColumnFormula>IF(ISBLANK(B7),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B7))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{503C31E9-854D-BF42-85AC-8DFA1376C4D8}" name="Jour" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{B35A0B98-71A0-BA4F-BFAB-00A05EA1F23A}" name="heure" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{BE4D837D-FC99-BA48-A82F-B8C8E4CE5BF8}" name="min." dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{A2DCC539-6D2A-B04A-BF8E-6FACE6268D1F}" name="Activité" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{4EA406B9-7EF7-D547-AF98-5AD11BE168E9}" name="Description" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{1735360B-2647-6D42-A0E3-3425EE302FFD}" name="Remarque / problème" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{503C31E9-854D-BF42-85AC-8DFA1376C4D8}" name="Jour" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{B35A0B98-71A0-BA4F-BFAB-00A05EA1F23A}" name="heure" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{BE4D837D-FC99-BA48-A82F-B8C8E4CE5BF8}" name="min." dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{A2DCC539-6D2A-B04A-BF8E-6FACE6268D1F}" name="Activité" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{4EA406B9-7EF7-D547-AF98-5AD11BE168E9}" name="Description" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{1735360B-2647-6D42-A0E3-3425EE302FFD}" name="Remarque / problème" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1992,27 +1998,27 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="10.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="2" customWidth="1"/>
     <col min="4" max="4" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="83.5" customWidth="1"/>
-    <col min="7" max="7" width="72.1640625" customWidth="1"/>
-    <col min="10" max="10" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="72.125" customWidth="1"/>
+    <col min="10" max="10" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.5" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="7.5" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="11" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="9"/>
       <c r="B1" s="10"/>
       <c r="C1" s="11"/>
@@ -2023,12 +2029,12 @@
       </c>
       <c r="G1" s="12"/>
     </row>
-    <row r="2" spans="1:15" ht="24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="57" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D2" s="57"/>
       <c r="E2" s="57"/>
@@ -2036,16 +2042,16 @@
         <v>2</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="24" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="22" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 2 heurs 30 minutes</v>
+        <v>0 jours 1 heurs 30 minutes</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="3"/>
@@ -2053,33 +2059,33 @@
         <v>10</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="24" hidden="1" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="23.25" hidden="1" x14ac:dyDescent="0.35">
       <c r="B4" s="5"/>
       <c r="C4" s="22">
         <f>SUBTOTAL(9,$C$7:$C$531)*60</f>
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="D4" s="22">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="E4" s="40">
         <f>SUM(C4:D4)</f>
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C5" s="58" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="58"/>
     </row>
-    <row r="6" spans="1:15" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" s="20" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>11</v>
       </c>
@@ -2087,53 +2093,59 @@
         <v>12</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D6" s="21" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F6" s="19" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <f>IF(ISBLANK(B7),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B7))</f>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B7" s="42">
-        <v>45344</v>
-      </c>
-      <c r="C7" s="43">
-        <v>2</v>
-      </c>
+        <v>45755</v>
+      </c>
+      <c r="C7" s="43"/>
       <c r="D7" s="44">
+        <v>25</v>
+      </c>
+      <c r="E7" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="54"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <f>IF(ISBLANK(B8),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B8))</f>
+        <v>15</v>
+      </c>
+      <c r="B8" s="46">
+        <v>45755</v>
+      </c>
+      <c r="C8" s="47"/>
+      <c r="D8" s="48">
+        <v>40</v>
+      </c>
+      <c r="E8" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="54"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="str">
-        <f>IF(ISBLANK(B8),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B8))</f>
-        <v/>
-      </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="36"/>
       <c r="G8" s="55"/>
       <c r="M8" t="s">
         <v>3</v>
@@ -2145,16 +2157,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="str">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="16">
         <f>IF(ISBLANK(B9),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B9))</f>
-        <v/>
-      </c>
-      <c r="B9" s="50"/>
+        <v>15</v>
+      </c>
+      <c r="B9" s="50">
+        <v>45755</v>
+      </c>
       <c r="C9" s="51"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="36"/>
+      <c r="D9" s="52">
+        <v>25</v>
+      </c>
+      <c r="E9" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>31</v>
+      </c>
       <c r="G9" s="56"/>
       <c r="M9" t="s">
         <v>4</v>
@@ -2166,7 +2186,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="str">
         <f>IF(ISBLANK(B10),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B10))</f>
         <v/>
@@ -2187,7 +2207,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="str">
         <f>IF(ISBLANK(B11),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B11))</f>
         <v/>
@@ -2208,7 +2228,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="str">
         <f>IF(ISBLANK(B12),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B12))</f>
         <v/>
@@ -2229,7 +2249,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="str">
         <f>IF(ISBLANK(B13),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B13))</f>
         <v/>
@@ -2250,7 +2270,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="str">
         <f>IF(ISBLANK(B14),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B14))</f>
         <v/>
@@ -2271,7 +2291,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="str">
         <f>IF(ISBLANK(B15),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B15))</f>
         <v/>
@@ -2292,7 +2312,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="str">
         <f>IF(ISBLANK(B16),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B16))</f>
         <v/>
@@ -2307,7 +2327,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="str">
         <f>IF(ISBLANK(B17),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B17))</f>
         <v/>
@@ -2322,7 +2342,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="str">
         <f>IF(ISBLANK(B18),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B18))</f>
         <v/>
@@ -2337,7 +2357,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="str">
         <f>IF(ISBLANK(B19),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B19))</f>
         <v/>
@@ -2352,7 +2372,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="str">
         <f>IF(ISBLANK(B20),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B20))</f>
         <v/>
@@ -2364,7 +2384,7 @@
       <c r="F20" s="36"/>
       <c r="G20" s="55"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="str">
         <f>IF(ISBLANK(B21),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B21))</f>
         <v/>
@@ -2376,7 +2396,7 @@
       <c r="F21" s="36"/>
       <c r="G21" s="56"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="str">
         <f>IF(ISBLANK(B22),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B22))</f>
         <v/>
@@ -2388,7 +2408,7 @@
       <c r="F22" s="36"/>
       <c r="G22" s="55"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="str">
         <f>IF(ISBLANK(B23),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B23))</f>
         <v/>
@@ -2400,7 +2420,7 @@
       <c r="F23" s="36"/>
       <c r="G23" s="56"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="str">
         <f>IF(ISBLANK(B24),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B24))</f>
         <v/>
@@ -2412,7 +2432,7 @@
       <c r="F24" s="36"/>
       <c r="G24" s="55"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="str">
         <f>IF(ISBLANK(B25),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B25))</f>
         <v/>
@@ -2424,7 +2444,7 @@
       <c r="F25" s="36"/>
       <c r="G25" s="56"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="str">
         <f>IF(ISBLANK(B26),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B26))</f>
         <v/>
@@ -2436,7 +2456,7 @@
       <c r="F26" s="36"/>
       <c r="G26" s="55"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="str">
         <f>IF(ISBLANK(B27),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B27))</f>
         <v/>
@@ -2448,7 +2468,7 @@
       <c r="F27" s="36"/>
       <c r="G27" s="56"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="str">
         <f>IF(ISBLANK(B28),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B28))</f>
         <v/>
@@ -2460,7 +2480,7 @@
       <c r="F28" s="35"/>
       <c r="G28" s="55"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="str">
         <f>IF(ISBLANK(B29),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B29))</f>
         <v/>
@@ -2472,7 +2492,7 @@
       <c r="F29" s="35"/>
       <c r="G29" s="56"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="str">
         <f>IF(ISBLANK(B30),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B30))</f>
         <v/>
@@ -2484,7 +2504,7 @@
       <c r="F30" s="36"/>
       <c r="G30" s="55"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="str">
         <f>IF(ISBLANK(B31),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B31))</f>
         <v/>
@@ -2496,7 +2516,7 @@
       <c r="F31" s="35"/>
       <c r="G31" s="56"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="str">
         <f>IF(ISBLANK(B32),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B32))</f>
         <v/>
@@ -2508,7 +2528,7 @@
       <c r="F32" s="36"/>
       <c r="G32" s="55"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="str">
         <f>IF(ISBLANK(B33),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B33))</f>
         <v/>
@@ -2520,7 +2540,7 @@
       <c r="F33" s="35"/>
       <c r="G33" s="56"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="str">
         <f>IF(ISBLANK(B34),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B34))</f>
         <v/>
@@ -2532,7 +2552,7 @@
       <c r="F34" s="35"/>
       <c r="G34" s="55"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="str">
         <f>IF(ISBLANK(B35),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B35))</f>
         <v/>
@@ -2544,7 +2564,7 @@
       <c r="F35" s="36"/>
       <c r="G35" s="56"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="str">
         <f>IF(ISBLANK(B36),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B36))</f>
         <v/>
@@ -2556,7 +2576,7 @@
       <c r="F36" s="35"/>
       <c r="G36" s="55"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="str">
         <f>IF(ISBLANK(B37),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B37))</f>
         <v/>
@@ -2568,7 +2588,7 @@
       <c r="F37" s="35"/>
       <c r="G37" s="56"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="str">
         <f>IF(ISBLANK(B38),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B38))</f>
         <v/>
@@ -2580,7 +2600,7 @@
       <c r="F38" s="35"/>
       <c r="G38" s="55"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="str">
         <f>IF(ISBLANK(B39),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B39))</f>
         <v/>
@@ -2592,7 +2612,7 @@
       <c r="F39" s="35"/>
       <c r="G39" s="56"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="str">
         <f>IF(ISBLANK(B40),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B40))</f>
         <v/>
@@ -2604,7 +2624,7 @@
       <c r="F40" s="35"/>
       <c r="G40" s="55"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="16" t="str">
         <f>IF(ISBLANK(B41),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B41))</f>
         <v/>
@@ -2616,7 +2636,7 @@
       <c r="F41" s="35"/>
       <c r="G41" s="56"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="str">
         <f>IF(ISBLANK(B42),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B42))</f>
         <v/>
@@ -2628,7 +2648,7 @@
       <c r="F42" s="35"/>
       <c r="G42" s="55"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="16" t="str">
         <f>IF(ISBLANK(B43),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B43))</f>
         <v/>
@@ -2640,7 +2660,7 @@
       <c r="F43" s="35"/>
       <c r="G43" s="56"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="str">
         <f>IF(ISBLANK(B44),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B44))</f>
         <v/>
@@ -2652,7 +2672,7 @@
       <c r="F44" s="35"/>
       <c r="G44" s="55"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="str">
         <f>IF(ISBLANK(B45),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B45))</f>
         <v/>
@@ -2664,7 +2684,7 @@
       <c r="F45" s="35"/>
       <c r="G45" s="56"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="str">
         <f>IF(ISBLANK(B46),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B46))</f>
         <v/>
@@ -2676,7 +2696,7 @@
       <c r="F46" s="35"/>
       <c r="G46" s="55"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="16" t="str">
         <f>IF(ISBLANK(B47),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B47))</f>
         <v/>
@@ -2688,7 +2708,7 @@
       <c r="F47" s="35"/>
       <c r="G47" s="56"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="str">
         <f>IF(ISBLANK(B48),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B48))</f>
         <v/>
@@ -2700,7 +2720,7 @@
       <c r="F48" s="35"/>
       <c r="G48" s="55"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="16" t="str">
         <f>IF(ISBLANK(B49),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B49))</f>
         <v/>
@@ -2712,7 +2732,7 @@
       <c r="F49" s="35"/>
       <c r="G49" s="56"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="str">
         <f>IF(ISBLANK(B50),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B50))</f>
         <v/>
@@ -2724,7 +2744,7 @@
       <c r="F50" s="35"/>
       <c r="G50" s="55"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="16" t="str">
         <f>IF(ISBLANK(B51),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B51))</f>
         <v/>
@@ -2736,7 +2756,7 @@
       <c r="F51" s="35"/>
       <c r="G51" s="56"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="str">
         <f>IF(ISBLANK(B52),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B52))</f>
         <v/>
@@ -2748,7 +2768,7 @@
       <c r="F52" s="35"/>
       <c r="G52" s="55"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="16" t="str">
         <f>IF(ISBLANK(B53),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B53))</f>
         <v/>
@@ -2760,7 +2780,7 @@
       <c r="F53" s="35"/>
       <c r="G53" s="56"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="str">
         <f>IF(ISBLANK(B54),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B54))</f>
         <v/>
@@ -2772,7 +2792,7 @@
       <c r="F54" s="35"/>
       <c r="G54" s="55"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="16" t="str">
         <f>IF(ISBLANK(B55),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B55))</f>
         <v/>
@@ -2784,7 +2804,7 @@
       <c r="F55" s="35"/>
       <c r="G55" s="56"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="str">
         <f>IF(ISBLANK(B56),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B56))</f>
         <v/>
@@ -2796,7 +2816,7 @@
       <c r="F56" s="15"/>
       <c r="G56" s="55"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="16" t="str">
         <f>IF(ISBLANK(B57),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B57))</f>
         <v/>
@@ -2808,7 +2828,7 @@
       <c r="F57" s="17"/>
       <c r="G57" s="56"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="str">
         <f>IF(ISBLANK(B58),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B58))</f>
         <v/>
@@ -2820,7 +2840,7 @@
       <c r="F58" s="15"/>
       <c r="G58" s="55"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="16" t="str">
         <f>IF(ISBLANK(B59),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B59))</f>
         <v/>
@@ -2832,7 +2852,7 @@
       <c r="F59" s="17"/>
       <c r="G59" s="56"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="str">
         <f>IF(ISBLANK(B60),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B60))</f>
         <v/>
@@ -2844,7 +2864,7 @@
       <c r="F60" s="15"/>
       <c r="G60" s="55"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="16" t="str">
         <f>IF(ISBLANK(B61),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B61))</f>
         <v/>
@@ -2856,7 +2876,7 @@
       <c r="F61" s="17"/>
       <c r="G61" s="56"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="str">
         <f>IF(ISBLANK(B62),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B62))</f>
         <v/>
@@ -2868,7 +2888,7 @@
       <c r="F62" s="15"/>
       <c r="G62" s="55"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="16" t="str">
         <f>IF(ISBLANK(B63),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B63))</f>
         <v/>
@@ -2880,7 +2900,7 @@
       <c r="F63" s="17"/>
       <c r="G63" s="56"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="str">
         <f>IF(ISBLANK(B64),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B64))</f>
         <v/>
@@ -2892,7 +2912,7 @@
       <c r="F64" s="15"/>
       <c r="G64" s="55"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="16" t="str">
         <f>IF(ISBLANK(B65),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B65))</f>
         <v/>
@@ -2904,7 +2924,7 @@
       <c r="F65" s="17"/>
       <c r="G65" s="56"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="str">
         <f>IF(ISBLANK(B66),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B66))</f>
         <v/>
@@ -2916,7 +2936,7 @@
       <c r="F66" s="15"/>
       <c r="G66" s="55"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="16" t="str">
         <f>IF(ISBLANK(B67),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B67))</f>
         <v/>
@@ -2928,7 +2948,7 @@
       <c r="F67" s="17"/>
       <c r="G67" s="56"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="str">
         <f>IF(ISBLANK(B68),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B68))</f>
         <v/>
@@ -2940,7 +2960,7 @@
       <c r="F68" s="15"/>
       <c r="G68" s="55"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="16" t="str">
         <f>IF(ISBLANK(B69),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B69))</f>
         <v/>
@@ -2952,7 +2972,7 @@
       <c r="F69" s="17"/>
       <c r="G69" s="56"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="str">
         <f>IF(ISBLANK(B70),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B70))</f>
         <v/>
@@ -2964,7 +2984,7 @@
       <c r="F70" s="15"/>
       <c r="G70" s="55"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="16" t="str">
         <f>IF(ISBLANK(B71),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B71))</f>
         <v/>
@@ -2976,7 +2996,7 @@
       <c r="F71" s="17"/>
       <c r="G71" s="56"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="str">
         <f>IF(ISBLANK(B72),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B72))</f>
         <v/>
@@ -2988,7 +3008,7 @@
       <c r="F72" s="15"/>
       <c r="G72" s="55"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="16" t="str">
         <f>IF(ISBLANK(B73),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B73))</f>
         <v/>
@@ -3000,7 +3020,7 @@
       <c r="F73" s="17"/>
       <c r="G73" s="56"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="str">
         <f>IF(ISBLANK(B74),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B74))</f>
         <v/>
@@ -3012,7 +3032,7 @@
       <c r="F74" s="15"/>
       <c r="G74" s="55"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="16" t="str">
         <f>IF(ISBLANK(B75),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B75))</f>
         <v/>
@@ -3024,7 +3044,7 @@
       <c r="F75" s="17"/>
       <c r="G75" s="56"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="str">
         <f>IF(ISBLANK(B76),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B76))</f>
         <v/>
@@ -3036,7 +3056,7 @@
       <c r="F76" s="15"/>
       <c r="G76" s="55"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="16" t="str">
         <f>IF(ISBLANK(B77),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B77))</f>
         <v/>
@@ -3048,7 +3068,7 @@
       <c r="F77" s="17"/>
       <c r="G77" s="56"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="str">
         <f>IF(ISBLANK(B78),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B78))</f>
         <v/>
@@ -3060,7 +3080,7 @@
       <c r="F78" s="15"/>
       <c r="G78" s="55"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="16" t="str">
         <f>IF(ISBLANK(B79),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B79))</f>
         <v/>
@@ -3072,7 +3092,7 @@
       <c r="F79" s="17"/>
       <c r="G79" s="56"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="str">
         <f>IF(ISBLANK(B80),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B80))</f>
         <v/>
@@ -3084,7 +3104,7 @@
       <c r="F80" s="15"/>
       <c r="G80" s="55"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="16" t="str">
         <f>IF(ISBLANK(B81),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B81))</f>
         <v/>
@@ -3096,7 +3116,7 @@
       <c r="F81" s="17"/>
       <c r="G81" s="56"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="str">
         <f>IF(ISBLANK(B82),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B82))</f>
         <v/>
@@ -3108,7 +3128,7 @@
       <c r="F82" s="15"/>
       <c r="G82" s="55"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="16" t="str">
         <f>IF(ISBLANK(B83),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B83))</f>
         <v/>
@@ -3120,7 +3140,7 @@
       <c r="F83" s="17"/>
       <c r="G83" s="56"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="str">
         <f>IF(ISBLANK(B84),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B84))</f>
         <v/>
@@ -3132,7 +3152,7 @@
       <c r="F84" s="15"/>
       <c r="G84" s="55"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="16" t="str">
         <f>IF(ISBLANK(B85),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B85))</f>
         <v/>
@@ -3144,7 +3164,7 @@
       <c r="F85" s="17"/>
       <c r="G85" s="56"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="str">
         <f>IF(ISBLANK(B86),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B86))</f>
         <v/>
@@ -3156,7 +3176,7 @@
       <c r="F86" s="15"/>
       <c r="G86" s="55"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="16" t="str">
         <f>IF(ISBLANK(B87),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B87))</f>
         <v/>
@@ -3168,7 +3188,7 @@
       <c r="F87" s="17"/>
       <c r="G87" s="56"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="8" t="str">
         <f>IF(ISBLANK(B88),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B88))</f>
         <v/>
@@ -3180,7 +3200,7 @@
       <c r="F88" s="15"/>
       <c r="G88" s="55"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="16" t="str">
         <f>IF(ISBLANK(B89),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B89))</f>
         <v/>
@@ -3192,7 +3212,7 @@
       <c r="F89" s="17"/>
       <c r="G89" s="56"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="str">
         <f>IF(ISBLANK(B90),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B90))</f>
         <v/>
@@ -3204,7 +3224,7 @@
       <c r="F90" s="15"/>
       <c r="G90" s="55"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="16" t="str">
         <f>IF(ISBLANK(B91),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B91))</f>
         <v/>
@@ -3216,7 +3236,7 @@
       <c r="F91" s="17"/>
       <c r="G91" s="56"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="str">
         <f>IF(ISBLANK(B92),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B92))</f>
         <v/>
@@ -3228,7 +3248,7 @@
       <c r="F92" s="15"/>
       <c r="G92" s="55"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="16" t="str">
         <f>IF(ISBLANK(B93),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B93))</f>
         <v/>
@@ -3240,7 +3260,7 @@
       <c r="F93" s="17"/>
       <c r="G93" s="56"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="str">
         <f>IF(ISBLANK(B94),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B94))</f>
         <v/>
@@ -3252,7 +3272,7 @@
       <c r="F94" s="15"/>
       <c r="G94" s="55"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="16" t="str">
         <f>IF(ISBLANK(B95),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B95))</f>
         <v/>
@@ -3264,7 +3284,7 @@
       <c r="F95" s="17"/>
       <c r="G95" s="56"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="str">
         <f>IF(ISBLANK(B96),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B96))</f>
         <v/>
@@ -3276,7 +3296,7 @@
       <c r="F96" s="15"/>
       <c r="G96" s="55"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="16" t="str">
         <f>IF(ISBLANK(B97),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B97))</f>
         <v/>
@@ -3288,7 +3308,7 @@
       <c r="F97" s="17"/>
       <c r="G97" s="56"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="str">
         <f>IF(ISBLANK(B98),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B98))</f>
         <v/>
@@ -3300,7 +3320,7 @@
       <c r="F98" s="15"/>
       <c r="G98" s="55"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="16" t="str">
         <f>IF(ISBLANK(B99),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B99))</f>
         <v/>
@@ -3312,7 +3332,7 @@
       <c r="F99" s="17"/>
       <c r="G99" s="56"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="str">
         <f>IF(ISBLANK(B100),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B100))</f>
         <v/>
@@ -3324,7 +3344,7 @@
       <c r="F100" s="15"/>
       <c r="G100" s="55"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="16" t="str">
         <f>IF(ISBLANK(B101),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B101))</f>
         <v/>
@@ -3336,7 +3356,7 @@
       <c r="F101" s="17"/>
       <c r="G101" s="56"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="str">
         <f>IF(ISBLANK(B102),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B102))</f>
         <v/>
@@ -3348,7 +3368,7 @@
       <c r="F102" s="15"/>
       <c r="G102" s="55"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="16" t="str">
         <f>IF(ISBLANK(B103),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B103))</f>
         <v/>
@@ -3360,7 +3380,7 @@
       <c r="F103" s="17"/>
       <c r="G103" s="56"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="8" t="str">
         <f>IF(ISBLANK(B104),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B104))</f>
         <v/>
@@ -3372,7 +3392,7 @@
       <c r="F104" s="15"/>
       <c r="G104" s="55"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="16" t="str">
         <f>IF(ISBLANK(B105),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B105))</f>
         <v/>
@@ -3384,7 +3404,7 @@
       <c r="F105" s="17"/>
       <c r="G105" s="56"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="8" t="str">
         <f>IF(ISBLANK(B106),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B106))</f>
         <v/>
@@ -3396,7 +3416,7 @@
       <c r="F106" s="15"/>
       <c r="G106" s="55"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="16" t="str">
         <f>IF(ISBLANK(B107),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B107))</f>
         <v/>
@@ -3408,7 +3428,7 @@
       <c r="F107" s="17"/>
       <c r="G107" s="56"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="8" t="str">
         <f>IF(ISBLANK(B108),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B108))</f>
         <v/>
@@ -3420,7 +3440,7 @@
       <c r="F108" s="15"/>
       <c r="G108" s="55"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="16" t="str">
         <f>IF(ISBLANK(B109),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B109))</f>
         <v/>
@@ -3432,7 +3452,7 @@
       <c r="F109" s="17"/>
       <c r="G109" s="56"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="8" t="str">
         <f>IF(ISBLANK(B110),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B110))</f>
         <v/>
@@ -3444,7 +3464,7 @@
       <c r="F110" s="15"/>
       <c r="G110" s="55"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="16" t="str">
         <f>IF(ISBLANK(B111),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B111))</f>
         <v/>
@@ -3456,7 +3476,7 @@
       <c r="F111" s="17"/>
       <c r="G111" s="56"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="8" t="str">
         <f>IF(ISBLANK(B112),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B112))</f>
         <v/>
@@ -3468,7 +3488,7 @@
       <c r="F112" s="15"/>
       <c r="G112" s="55"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="16" t="str">
         <f>IF(ISBLANK(B113),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B113))</f>
         <v/>
@@ -3480,7 +3500,7 @@
       <c r="F113" s="17"/>
       <c r="G113" s="56"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="8" t="str">
         <f>IF(ISBLANK(B114),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B114))</f>
         <v/>
@@ -3492,7 +3512,7 @@
       <c r="F114" s="15"/>
       <c r="G114" s="55"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="16" t="str">
         <f>IF(ISBLANK(B115),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B115))</f>
         <v/>
@@ -3504,7 +3524,7 @@
       <c r="F115" s="17"/>
       <c r="G115" s="56"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="8" t="str">
         <f>IF(ISBLANK(B116),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B116))</f>
         <v/>
@@ -3516,7 +3536,7 @@
       <c r="F116" s="15"/>
       <c r="G116" s="55"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="16" t="str">
         <f>IF(ISBLANK(B117),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B117))</f>
         <v/>
@@ -3528,7 +3548,7 @@
       <c r="F117" s="17"/>
       <c r="G117" s="56"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="8" t="str">
         <f>IF(ISBLANK(B118),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B118))</f>
         <v/>
@@ -3540,7 +3560,7 @@
       <c r="F118" s="15"/>
       <c r="G118" s="55"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="16" t="str">
         <f>IF(ISBLANK(B119),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B119))</f>
         <v/>
@@ -3552,7 +3572,7 @@
       <c r="F119" s="17"/>
       <c r="G119" s="56"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="8" t="str">
         <f>IF(ISBLANK(B120),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B120))</f>
         <v/>
@@ -3564,7 +3584,7 @@
       <c r="F120" s="15"/>
       <c r="G120" s="55"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="16" t="str">
         <f>IF(ISBLANK(B121),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B121))</f>
         <v/>
@@ -3576,7 +3596,7 @@
       <c r="F121" s="17"/>
       <c r="G121" s="56"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="8" t="str">
         <f>IF(ISBLANK(B122),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B122))</f>
         <v/>
@@ -3588,7 +3608,7 @@
       <c r="F122" s="15"/>
       <c r="G122" s="55"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="16" t="str">
         <f>IF(ISBLANK(B123),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B123))</f>
         <v/>
@@ -3600,7 +3620,7 @@
       <c r="F123" s="17"/>
       <c r="G123" s="56"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="8" t="str">
         <f>IF(ISBLANK(B124),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B124))</f>
         <v/>
@@ -3612,7 +3632,7 @@
       <c r="F124" s="15"/>
       <c r="G124" s="55"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="16" t="str">
         <f>IF(ISBLANK(B125),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B125))</f>
         <v/>
@@ -3624,7 +3644,7 @@
       <c r="F125" s="17"/>
       <c r="G125" s="56"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="8" t="str">
         <f>IF(ISBLANK(B126),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B126))</f>
         <v/>
@@ -3636,7 +3656,7 @@
       <c r="F126" s="15"/>
       <c r="G126" s="55"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="16" t="str">
         <f>IF(ISBLANK(B127),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B127))</f>
         <v/>
@@ -3648,7 +3668,7 @@
       <c r="F127" s="17"/>
       <c r="G127" s="56"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="8" t="str">
         <f>IF(ISBLANK(B128),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B128))</f>
         <v/>
@@ -3660,7 +3680,7 @@
       <c r="F128" s="15"/>
       <c r="G128" s="55"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="16" t="str">
         <f>IF(ISBLANK(B129),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B129))</f>
         <v/>
@@ -3672,7 +3692,7 @@
       <c r="F129" s="17"/>
       <c r="G129" s="56"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="8" t="str">
         <f>IF(ISBLANK(B130),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B130))</f>
         <v/>
@@ -3684,7 +3704,7 @@
       <c r="F130" s="15"/>
       <c r="G130" s="55"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="16" t="str">
         <f>IF(ISBLANK(B131),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B131))</f>
         <v/>
@@ -3696,7 +3716,7 @@
       <c r="F131" s="17"/>
       <c r="G131" s="56"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="8" t="str">
         <f>IF(ISBLANK(B132),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B132))</f>
         <v/>
@@ -3708,7 +3728,7 @@
       <c r="F132" s="15"/>
       <c r="G132" s="55"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="16" t="str">
         <f>IF(ISBLANK(B133),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B133))</f>
         <v/>
@@ -3720,7 +3740,7 @@
       <c r="F133" s="17"/>
       <c r="G133" s="56"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="8" t="str">
         <f>IF(ISBLANK(B134),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B134))</f>
         <v/>
@@ -3732,7 +3752,7 @@
       <c r="F134" s="15"/>
       <c r="G134" s="55"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="16" t="str">
         <f>IF(ISBLANK(B135),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B135))</f>
         <v/>
@@ -3744,7 +3764,7 @@
       <c r="F135" s="17"/>
       <c r="G135" s="56"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="8" t="str">
         <f>IF(ISBLANK(B136),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B136))</f>
         <v/>
@@ -3756,7 +3776,7 @@
       <c r="F136" s="15"/>
       <c r="G136" s="55"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="16" t="str">
         <f>IF(ISBLANK(B137),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B137))</f>
         <v/>
@@ -3768,7 +3788,7 @@
       <c r="F137" s="17"/>
       <c r="G137" s="56"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="8" t="str">
         <f>IF(ISBLANK(B138),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B138))</f>
         <v/>
@@ -3780,7 +3800,7 @@
       <c r="F138" s="15"/>
       <c r="G138" s="55"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="16" t="str">
         <f>IF(ISBLANK(B139),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B139))</f>
         <v/>
@@ -3792,7 +3812,7 @@
       <c r="F139" s="17"/>
       <c r="G139" s="56"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="8" t="str">
         <f>IF(ISBLANK(B140),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B140))</f>
         <v/>
@@ -3804,7 +3824,7 @@
       <c r="F140" s="15"/>
       <c r="G140" s="55"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="16" t="str">
         <f>IF(ISBLANK(B141),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B141))</f>
         <v/>
@@ -3816,7 +3836,7 @@
       <c r="F141" s="17"/>
       <c r="G141" s="56"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="8" t="str">
         <f>IF(ISBLANK(B142),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B142))</f>
         <v/>
@@ -3828,7 +3848,7 @@
       <c r="F142" s="15"/>
       <c r="G142" s="55"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="16" t="str">
         <f>IF(ISBLANK(B143),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B143))</f>
         <v/>
@@ -3840,7 +3860,7 @@
       <c r="F143" s="17"/>
       <c r="G143" s="56"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="8" t="str">
         <f>IF(ISBLANK(B144),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B144))</f>
         <v/>
@@ -3852,7 +3872,7 @@
       <c r="F144" s="15"/>
       <c r="G144" s="55"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="16" t="str">
         <f>IF(ISBLANK(B145),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B145))</f>
         <v/>
@@ -3864,7 +3884,7 @@
       <c r="F145" s="17"/>
       <c r="G145" s="56"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="8" t="str">
         <f>IF(ISBLANK(B146),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B146))</f>
         <v/>
@@ -3876,7 +3896,7 @@
       <c r="F146" s="15"/>
       <c r="G146" s="55"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="16" t="str">
         <f>IF(ISBLANK(B147),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B147))</f>
         <v/>
@@ -3888,7 +3908,7 @@
       <c r="F147" s="17"/>
       <c r="G147" s="56"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="8" t="str">
         <f>IF(ISBLANK(B148),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B148))</f>
         <v/>
@@ -3900,7 +3920,7 @@
       <c r="F148" s="15"/>
       <c r="G148" s="55"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="16" t="str">
         <f>IF(ISBLANK(B149),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B149))</f>
         <v/>
@@ -3912,7 +3932,7 @@
       <c r="F149" s="17"/>
       <c r="G149" s="56"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="8" t="str">
         <f>IF(ISBLANK(B150),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B150))</f>
         <v/>
@@ -3924,7 +3944,7 @@
       <c r="F150" s="15"/>
       <c r="G150" s="55"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="16" t="str">
         <f>IF(ISBLANK(B151),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B151))</f>
         <v/>
@@ -3936,7 +3956,7 @@
       <c r="F151" s="17"/>
       <c r="G151" s="56"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="8" t="str">
         <f>IF(ISBLANK(B152),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B152))</f>
         <v/>
@@ -3948,7 +3968,7 @@
       <c r="F152" s="15"/>
       <c r="G152" s="55"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="16" t="str">
         <f>IF(ISBLANK(B153),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B153))</f>
         <v/>
@@ -3960,7 +3980,7 @@
       <c r="F153" s="17"/>
       <c r="G153" s="56"/>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="8" t="str">
         <f>IF(ISBLANK(B154),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B154))</f>
         <v/>
@@ -3972,7 +3992,7 @@
       <c r="F154" s="15"/>
       <c r="G154" s="55"/>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="16" t="str">
         <f>IF(ISBLANK(B155),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B155))</f>
         <v/>
@@ -3984,7 +4004,7 @@
       <c r="F155" s="17"/>
       <c r="G155" s="56"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="8" t="str">
         <f>IF(ISBLANK(B156),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B156))</f>
         <v/>
@@ -3996,7 +4016,7 @@
       <c r="F156" s="15"/>
       <c r="G156" s="55"/>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="16" t="str">
         <f>IF(ISBLANK(B157),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B157))</f>
         <v/>
@@ -4008,7 +4028,7 @@
       <c r="F157" s="17"/>
       <c r="G157" s="56"/>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="8" t="str">
         <f>IF(ISBLANK(B158),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B158))</f>
         <v/>
@@ -4020,7 +4040,7 @@
       <c r="F158" s="15"/>
       <c r="G158" s="55"/>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="16" t="str">
         <f>IF(ISBLANK(B159),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B159))</f>
         <v/>
@@ -4032,7 +4052,7 @@
       <c r="F159" s="17"/>
       <c r="G159" s="56"/>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="8" t="str">
         <f>IF(ISBLANK(B160),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B160))</f>
         <v/>
@@ -4044,7 +4064,7 @@
       <c r="F160" s="15"/>
       <c r="G160" s="55"/>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="16" t="str">
         <f>IF(ISBLANK(B161),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B161))</f>
         <v/>
@@ -4056,7 +4076,7 @@
       <c r="F161" s="17"/>
       <c r="G161" s="56"/>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="8" t="str">
         <f>IF(ISBLANK(B162),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B162))</f>
         <v/>
@@ -4068,7 +4088,7 @@
       <c r="F162" s="15"/>
       <c r="G162" s="55"/>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="16" t="str">
         <f>IF(ISBLANK(B163),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B163))</f>
         <v/>
@@ -4080,7 +4100,7 @@
       <c r="F163" s="17"/>
       <c r="G163" s="56"/>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="8" t="str">
         <f>IF(ISBLANK(B164),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B164))</f>
         <v/>
@@ -4092,7 +4112,7 @@
       <c r="F164" s="15"/>
       <c r="G164" s="55"/>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="16" t="str">
         <f>IF(ISBLANK(B165),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B165))</f>
         <v/>
@@ -4104,7 +4124,7 @@
       <c r="F165" s="17"/>
       <c r="G165" s="56"/>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="8" t="str">
         <f>IF(ISBLANK(B166),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B166))</f>
         <v/>
@@ -4116,7 +4136,7 @@
       <c r="F166" s="15"/>
       <c r="G166" s="55"/>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="16" t="str">
         <f>IF(ISBLANK(B167),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B167))</f>
         <v/>
@@ -4128,7 +4148,7 @@
       <c r="F167" s="17"/>
       <c r="G167" s="56"/>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="8" t="str">
         <f>IF(ISBLANK(B168),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B168))</f>
         <v/>
@@ -4140,7 +4160,7 @@
       <c r="F168" s="15"/>
       <c r="G168" s="55"/>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="16" t="str">
         <f>IF(ISBLANK(B169),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B169))</f>
         <v/>
@@ -4152,7 +4172,7 @@
       <c r="F169" s="17"/>
       <c r="G169" s="56"/>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="8" t="str">
         <f>IF(ISBLANK(B170),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B170))</f>
         <v/>
@@ -4164,7 +4184,7 @@
       <c r="F170" s="15"/>
       <c r="G170" s="55"/>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="16" t="str">
         <f>IF(ISBLANK(B171),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B171))</f>
         <v/>
@@ -4176,7 +4196,7 @@
       <c r="F171" s="17"/>
       <c r="G171" s="56"/>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="8" t="str">
         <f>IF(ISBLANK(B172),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B172))</f>
         <v/>
@@ -4188,7 +4208,7 @@
       <c r="F172" s="15"/>
       <c r="G172" s="55"/>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="16" t="str">
         <f>IF(ISBLANK(B173),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B173))</f>
         <v/>
@@ -4200,7 +4220,7 @@
       <c r="F173" s="17"/>
       <c r="G173" s="56"/>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="8" t="str">
         <f>IF(ISBLANK(B174),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B174))</f>
         <v/>
@@ -4212,7 +4232,7 @@
       <c r="F174" s="15"/>
       <c r="G174" s="55"/>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="16" t="str">
         <f>IF(ISBLANK(B175),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B175))</f>
         <v/>
@@ -4224,7 +4244,7 @@
       <c r="F175" s="17"/>
       <c r="G175" s="56"/>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="8" t="str">
         <f>IF(ISBLANK(B176),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B176))</f>
         <v/>
@@ -4236,7 +4256,7 @@
       <c r="F176" s="15"/>
       <c r="G176" s="55"/>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="16" t="str">
         <f>IF(ISBLANK(B177),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B177))</f>
         <v/>
@@ -4248,7 +4268,7 @@
       <c r="F177" s="17"/>
       <c r="G177" s="56"/>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="8" t="str">
         <f>IF(ISBLANK(B178),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B178))</f>
         <v/>
@@ -4260,7 +4280,7 @@
       <c r="F178" s="15"/>
       <c r="G178" s="55"/>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="16" t="str">
         <f>IF(ISBLANK(B179),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B179))</f>
         <v/>
@@ -4272,7 +4292,7 @@
       <c r="F179" s="17"/>
       <c r="G179" s="56"/>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="8" t="str">
         <f>IF(ISBLANK(B180),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B180))</f>
         <v/>
@@ -4284,7 +4304,7 @@
       <c r="F180" s="15"/>
       <c r="G180" s="55"/>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="16" t="str">
         <f>IF(ISBLANK(B181),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B181))</f>
         <v/>
@@ -4296,7 +4316,7 @@
       <c r="F181" s="17"/>
       <c r="G181" s="56"/>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="8" t="str">
         <f>IF(ISBLANK(B182),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B182))</f>
         <v/>
@@ -4308,7 +4328,7 @@
       <c r="F182" s="15"/>
       <c r="G182" s="55"/>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="16" t="str">
         <f>IF(ISBLANK(B183),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B183))</f>
         <v/>
@@ -4320,7 +4340,7 @@
       <c r="F183" s="17"/>
       <c r="G183" s="56"/>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="8" t="str">
         <f>IF(ISBLANK(B184),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B184))</f>
         <v/>
@@ -4332,7 +4352,7 @@
       <c r="F184" s="15"/>
       <c r="G184" s="55"/>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="16" t="str">
         <f>IF(ISBLANK(B185),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B185))</f>
         <v/>
@@ -4344,7 +4364,7 @@
       <c r="F185" s="17"/>
       <c r="G185" s="56"/>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="8" t="str">
         <f>IF(ISBLANK(B186),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B186))</f>
         <v/>
@@ -4356,7 +4376,7 @@
       <c r="F186" s="15"/>
       <c r="G186" s="55"/>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="16" t="str">
         <f>IF(ISBLANK(B187),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B187))</f>
         <v/>
@@ -4368,7 +4388,7 @@
       <c r="F187" s="17"/>
       <c r="G187" s="56"/>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="8" t="str">
         <f>IF(ISBLANK(B188),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B188))</f>
         <v/>
@@ -4380,7 +4400,7 @@
       <c r="F188" s="15"/>
       <c r="G188" s="55"/>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="16" t="str">
         <f>IF(ISBLANK(B189),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B189))</f>
         <v/>
@@ -4392,7 +4412,7 @@
       <c r="F189" s="17"/>
       <c r="G189" s="56"/>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="8" t="str">
         <f>IF(ISBLANK(B190),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B190))</f>
         <v/>
@@ -4404,7 +4424,7 @@
       <c r="F190" s="15"/>
       <c r="G190" s="55"/>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="16" t="str">
         <f>IF(ISBLANK(B191),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B191))</f>
         <v/>
@@ -4416,7 +4436,7 @@
       <c r="F191" s="17"/>
       <c r="G191" s="56"/>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="8" t="str">
         <f>IF(ISBLANK(B192),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B192))</f>
         <v/>
@@ -4428,7 +4448,7 @@
       <c r="F192" s="15"/>
       <c r="G192" s="55"/>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="16" t="str">
         <f>IF(ISBLANK(B193),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B193))</f>
         <v/>
@@ -4440,7 +4460,7 @@
       <c r="F193" s="17"/>
       <c r="G193" s="56"/>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="8" t="str">
         <f>IF(ISBLANK(B194),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B194))</f>
         <v/>
@@ -4452,7 +4472,7 @@
       <c r="F194" s="15"/>
       <c r="G194" s="55"/>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="16" t="str">
         <f>IF(ISBLANK(B195),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B195))</f>
         <v/>
@@ -4464,7 +4484,7 @@
       <c r="F195" s="17"/>
       <c r="G195" s="56"/>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="8" t="str">
         <f>IF(ISBLANK(B196),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B196))</f>
         <v/>
@@ -4476,7 +4496,7 @@
       <c r="F196" s="15"/>
       <c r="G196" s="55"/>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="16" t="str">
         <f>IF(ISBLANK(B197),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B197))</f>
         <v/>
@@ -4488,7 +4508,7 @@
       <c r="F197" s="17"/>
       <c r="G197" s="56"/>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="8" t="str">
         <f>IF(ISBLANK(B198),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B198))</f>
         <v/>
@@ -4500,7 +4520,7 @@
       <c r="F198" s="15"/>
       <c r="G198" s="55"/>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="16" t="str">
         <f>IF(ISBLANK(B199),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B199))</f>
         <v/>
@@ -4512,7 +4532,7 @@
       <c r="F199" s="17"/>
       <c r="G199" s="56"/>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="8" t="str">
         <f>IF(ISBLANK(B200),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B200))</f>
         <v/>
@@ -4524,7 +4544,7 @@
       <c r="F200" s="15"/>
       <c r="G200" s="55"/>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="16" t="str">
         <f>IF(ISBLANK(B201),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B201))</f>
         <v/>
@@ -4536,7 +4556,7 @@
       <c r="F201" s="17"/>
       <c r="G201" s="56"/>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="8" t="str">
         <f>IF(ISBLANK(B202),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B202))</f>
         <v/>
@@ -4548,7 +4568,7 @@
       <c r="F202" s="15"/>
       <c r="G202" s="55"/>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="16" t="str">
         <f>IF(ISBLANK(B203),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B203))</f>
         <v/>
@@ -4560,7 +4580,7 @@
       <c r="F203" s="17"/>
       <c r="G203" s="56"/>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="8" t="str">
         <f>IF(ISBLANK(B204),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B204))</f>
         <v/>
@@ -4572,7 +4592,7 @@
       <c r="F204" s="15"/>
       <c r="G204" s="55"/>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="16" t="str">
         <f>IF(ISBLANK(B205),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B205))</f>
         <v/>
@@ -4584,7 +4604,7 @@
       <c r="F205" s="17"/>
       <c r="G205" s="56"/>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="8" t="str">
         <f>IF(ISBLANK(B206),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B206))</f>
         <v/>
@@ -4596,7 +4616,7 @@
       <c r="F206" s="15"/>
       <c r="G206" s="55"/>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="16" t="str">
         <f>IF(ISBLANK(B207),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B207))</f>
         <v/>
@@ -4608,7 +4628,7 @@
       <c r="F207" s="17"/>
       <c r="G207" s="56"/>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="8" t="str">
         <f>IF(ISBLANK(B208),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B208))</f>
         <v/>
@@ -4620,7 +4640,7 @@
       <c r="F208" s="15"/>
       <c r="G208" s="55"/>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="16" t="str">
         <f>IF(ISBLANK(B209),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B209))</f>
         <v/>
@@ -4632,7 +4652,7 @@
       <c r="F209" s="17"/>
       <c r="G209" s="56"/>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="8" t="str">
         <f>IF(ISBLANK(B210),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B210))</f>
         <v/>
@@ -4644,7 +4664,7 @@
       <c r="F210" s="15"/>
       <c r="G210" s="55"/>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="16" t="str">
         <f>IF(ISBLANK(B211),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B211))</f>
         <v/>
@@ -4656,7 +4676,7 @@
       <c r="F211" s="17"/>
       <c r="G211" s="56"/>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="8" t="str">
         <f>IF(ISBLANK(B212),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B212))</f>
         <v/>
@@ -4668,7 +4688,7 @@
       <c r="F212" s="15"/>
       <c r="G212" s="55"/>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="16" t="str">
         <f>IF(ISBLANK(B213),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B213))</f>
         <v/>
@@ -4680,7 +4700,7 @@
       <c r="F213" s="17"/>
       <c r="G213" s="56"/>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="8" t="str">
         <f>IF(ISBLANK(B214),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B214))</f>
         <v/>
@@ -4692,7 +4712,7 @@
       <c r="F214" s="15"/>
       <c r="G214" s="55"/>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="16" t="str">
         <f>IF(ISBLANK(B215),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B215))</f>
         <v/>
@@ -4704,7 +4724,7 @@
       <c r="F215" s="17"/>
       <c r="G215" s="56"/>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="8" t="str">
         <f>IF(ISBLANK(B216),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B216))</f>
         <v/>
@@ -4716,7 +4736,7 @@
       <c r="F216" s="15"/>
       <c r="G216" s="55"/>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="16" t="str">
         <f>IF(ISBLANK(B217),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B217))</f>
         <v/>
@@ -4728,7 +4748,7 @@
       <c r="F217" s="17"/>
       <c r="G217" s="56"/>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="8" t="str">
         <f>IF(ISBLANK(B218),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B218))</f>
         <v/>
@@ -4740,7 +4760,7 @@
       <c r="F218" s="15"/>
       <c r="G218" s="55"/>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="16" t="str">
         <f>IF(ISBLANK(B219),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B219))</f>
         <v/>
@@ -4752,7 +4772,7 @@
       <c r="F219" s="17"/>
       <c r="G219" s="56"/>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="8" t="str">
         <f>IF(ISBLANK(B220),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B220))</f>
         <v/>
@@ -4764,7 +4784,7 @@
       <c r="F220" s="15"/>
       <c r="G220" s="55"/>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="16" t="str">
         <f>IF(ISBLANK(B221),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B221))</f>
         <v/>
@@ -4776,7 +4796,7 @@
       <c r="F221" s="17"/>
       <c r="G221" s="56"/>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="8" t="str">
         <f>IF(ISBLANK(B222),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B222))</f>
         <v/>
@@ -4788,7 +4808,7 @@
       <c r="F222" s="15"/>
       <c r="G222" s="55"/>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="16" t="str">
         <f>IF(ISBLANK(B223),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B223))</f>
         <v/>
@@ -4800,7 +4820,7 @@
       <c r="F223" s="17"/>
       <c r="G223" s="56"/>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="8" t="str">
         <f>IF(ISBLANK(B224),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B224))</f>
         <v/>
@@ -4812,7 +4832,7 @@
       <c r="F224" s="15"/>
       <c r="G224" s="55"/>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="16" t="str">
         <f>IF(ISBLANK(B225),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B225))</f>
         <v/>
@@ -4824,7 +4844,7 @@
       <c r="F225" s="17"/>
       <c r="G225" s="56"/>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="8" t="str">
         <f>IF(ISBLANK(B226),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B226))</f>
         <v/>
@@ -4836,7 +4856,7 @@
       <c r="F226" s="15"/>
       <c r="G226" s="55"/>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="16" t="str">
         <f>IF(ISBLANK(B227),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B227))</f>
         <v/>
@@ -4848,7 +4868,7 @@
       <c r="F227" s="17"/>
       <c r="G227" s="56"/>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="8" t="str">
         <f>IF(ISBLANK(B228),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B228))</f>
         <v/>
@@ -4860,7 +4880,7 @@
       <c r="F228" s="15"/>
       <c r="G228" s="55"/>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="16" t="str">
         <f>IF(ISBLANK(B229),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B229))</f>
         <v/>
@@ -4872,7 +4892,7 @@
       <c r="F229" s="17"/>
       <c r="G229" s="56"/>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="8" t="str">
         <f>IF(ISBLANK(B230),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B230))</f>
         <v/>
@@ -4884,7 +4904,7 @@
       <c r="F230" s="15"/>
       <c r="G230" s="55"/>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="16" t="str">
         <f>IF(ISBLANK(B231),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B231))</f>
         <v/>
@@ -4896,7 +4916,7 @@
       <c r="F231" s="17"/>
       <c r="G231" s="56"/>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="8" t="str">
         <f>IF(ISBLANK(B232),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B232))</f>
         <v/>
@@ -4908,7 +4928,7 @@
       <c r="F232" s="15"/>
       <c r="G232" s="55"/>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="16" t="str">
         <f>IF(ISBLANK(B233),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B233))</f>
         <v/>
@@ -4920,7 +4940,7 @@
       <c r="F233" s="17"/>
       <c r="G233" s="56"/>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="8" t="str">
         <f>IF(ISBLANK(B234),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B234))</f>
         <v/>
@@ -4932,7 +4952,7 @@
       <c r="F234" s="15"/>
       <c r="G234" s="55"/>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="16" t="str">
         <f>IF(ISBLANK(B235),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B235))</f>
         <v/>
@@ -4944,7 +4964,7 @@
       <c r="F235" s="17"/>
       <c r="G235" s="56"/>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="8" t="str">
         <f>IF(ISBLANK(B236),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B236))</f>
         <v/>
@@ -4956,7 +4976,7 @@
       <c r="F236" s="15"/>
       <c r="G236" s="55"/>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="16" t="str">
         <f>IF(ISBLANK(B237),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B237))</f>
         <v/>
@@ -4968,7 +4988,7 @@
       <c r="F237" s="17"/>
       <c r="G237" s="56"/>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="8" t="str">
         <f>IF(ISBLANK(B238),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B238))</f>
         <v/>
@@ -4980,7 +5000,7 @@
       <c r="F238" s="15"/>
       <c r="G238" s="55"/>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="16" t="str">
         <f>IF(ISBLANK(B239),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B239))</f>
         <v/>
@@ -4992,7 +5012,7 @@
       <c r="F239" s="17"/>
       <c r="G239" s="56"/>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="8" t="str">
         <f>IF(ISBLANK(B240),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B240))</f>
         <v/>
@@ -5004,7 +5024,7 @@
       <c r="F240" s="15"/>
       <c r="G240" s="55"/>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="16" t="str">
         <f>IF(ISBLANK(B241),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B241))</f>
         <v/>
@@ -5016,7 +5036,7 @@
       <c r="F241" s="17"/>
       <c r="G241" s="56"/>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="8" t="str">
         <f>IF(ISBLANK(B242),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B242))</f>
         <v/>
@@ -5028,7 +5048,7 @@
       <c r="F242" s="15"/>
       <c r="G242" s="55"/>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="16" t="str">
         <f>IF(ISBLANK(B243),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B243))</f>
         <v/>
@@ -5040,7 +5060,7 @@
       <c r="F243" s="17"/>
       <c r="G243" s="56"/>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="8" t="str">
         <f>IF(ISBLANK(B244),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B244))</f>
         <v/>
@@ -5052,7 +5072,7 @@
       <c r="F244" s="15"/>
       <c r="G244" s="55"/>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="16" t="str">
         <f>IF(ISBLANK(B245),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B245))</f>
         <v/>
@@ -5064,7 +5084,7 @@
       <c r="F245" s="17"/>
       <c r="G245" s="56"/>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="8" t="str">
         <f>IF(ISBLANK(B246),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B246))</f>
         <v/>
@@ -5076,7 +5096,7 @@
       <c r="F246" s="15"/>
       <c r="G246" s="55"/>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="16" t="str">
         <f>IF(ISBLANK(B247),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B247))</f>
         <v/>
@@ -5088,7 +5108,7 @@
       <c r="F247" s="17"/>
       <c r="G247" s="56"/>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="8" t="str">
         <f>IF(ISBLANK(B248),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B248))</f>
         <v/>
@@ -5100,7 +5120,7 @@
       <c r="F248" s="15"/>
       <c r="G248" s="55"/>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="16" t="str">
         <f>IF(ISBLANK(B249),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B249))</f>
         <v/>
@@ -5112,7 +5132,7 @@
       <c r="F249" s="17"/>
       <c r="G249" s="56"/>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="8" t="str">
         <f>IF(ISBLANK(B250),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B250))</f>
         <v/>
@@ -5124,7 +5144,7 @@
       <c r="F250" s="15"/>
       <c r="G250" s="55"/>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="16" t="str">
         <f>IF(ISBLANK(B251),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B251))</f>
         <v/>
@@ -5136,7 +5156,7 @@
       <c r="F251" s="17"/>
       <c r="G251" s="56"/>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="8" t="str">
         <f>IF(ISBLANK(B252),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B252))</f>
         <v/>
@@ -5148,7 +5168,7 @@
       <c r="F252" s="15"/>
       <c r="G252" s="55"/>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="16" t="str">
         <f>IF(ISBLANK(B253),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B253))</f>
         <v/>
@@ -5160,7 +5180,7 @@
       <c r="F253" s="17"/>
       <c r="G253" s="56"/>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="8" t="str">
         <f>IF(ISBLANK(B254),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B254))</f>
         <v/>
@@ -5172,7 +5192,7 @@
       <c r="F254" s="15"/>
       <c r="G254" s="55"/>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="16" t="str">
         <f>IF(ISBLANK(B255),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B255))</f>
         <v/>
@@ -5184,7 +5204,7 @@
       <c r="F255" s="17"/>
       <c r="G255" s="56"/>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="8" t="str">
         <f>IF(ISBLANK(B256),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B256))</f>
         <v/>
@@ -5196,7 +5216,7 @@
       <c r="F256" s="15"/>
       <c r="G256" s="55"/>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="16" t="str">
         <f>IF(ISBLANK(B257),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B257))</f>
         <v/>
@@ -5208,7 +5228,7 @@
       <c r="F257" s="17"/>
       <c r="G257" s="56"/>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="8" t="str">
         <f>IF(ISBLANK(B258),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B258))</f>
         <v/>
@@ -5220,7 +5240,7 @@
       <c r="F258" s="15"/>
       <c r="G258" s="55"/>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="16" t="str">
         <f>IF(ISBLANK(B259),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B259))</f>
         <v/>
@@ -5232,7 +5252,7 @@
       <c r="F259" s="17"/>
       <c r="G259" s="56"/>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="8" t="str">
         <f>IF(ISBLANK(B260),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B260))</f>
         <v/>
@@ -5244,7 +5264,7 @@
       <c r="F260" s="15"/>
       <c r="G260" s="55"/>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="16" t="str">
         <f>IF(ISBLANK(B261),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B261))</f>
         <v/>
@@ -5256,7 +5276,7 @@
       <c r="F261" s="17"/>
       <c r="G261" s="56"/>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="8" t="str">
         <f>IF(ISBLANK(B262),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B262))</f>
         <v/>
@@ -5268,7 +5288,7 @@
       <c r="F262" s="15"/>
       <c r="G262" s="55"/>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="16" t="str">
         <f>IF(ISBLANK(B263),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B263))</f>
         <v/>
@@ -5280,7 +5300,7 @@
       <c r="F263" s="17"/>
       <c r="G263" s="56"/>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="8" t="str">
         <f>IF(ISBLANK(B264),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B264))</f>
         <v/>
@@ -5292,7 +5312,7 @@
       <c r="F264" s="15"/>
       <c r="G264" s="55"/>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="16" t="str">
         <f>IF(ISBLANK(B265),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B265))</f>
         <v/>
@@ -5304,7 +5324,7 @@
       <c r="F265" s="17"/>
       <c r="G265" s="56"/>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="8" t="str">
         <f>IF(ISBLANK(B266),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B266))</f>
         <v/>
@@ -5316,7 +5336,7 @@
       <c r="F266" s="15"/>
       <c r="G266" s="55"/>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="16" t="str">
         <f>IF(ISBLANK(B267),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B267))</f>
         <v/>
@@ -5328,7 +5348,7 @@
       <c r="F267" s="17"/>
       <c r="G267" s="56"/>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="8" t="str">
         <f>IF(ISBLANK(B268),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B268))</f>
         <v/>
@@ -5340,7 +5360,7 @@
       <c r="F268" s="15"/>
       <c r="G268" s="55"/>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="16" t="str">
         <f>IF(ISBLANK(B269),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B269))</f>
         <v/>
@@ -5352,7 +5372,7 @@
       <c r="F269" s="17"/>
       <c r="G269" s="56"/>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="8" t="str">
         <f>IF(ISBLANK(B270),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B270))</f>
         <v/>
@@ -5364,7 +5384,7 @@
       <c r="F270" s="15"/>
       <c r="G270" s="55"/>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="16" t="str">
         <f>IF(ISBLANK(B271),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B271))</f>
         <v/>
@@ -5376,7 +5396,7 @@
       <c r="F271" s="17"/>
       <c r="G271" s="56"/>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="8" t="str">
         <f>IF(ISBLANK(B272),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B272))</f>
         <v/>
@@ -5388,7 +5408,7 @@
       <c r="F272" s="15"/>
       <c r="G272" s="55"/>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="16" t="str">
         <f>IF(ISBLANK(B273),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B273))</f>
         <v/>
@@ -5400,7 +5420,7 @@
       <c r="F273" s="17"/>
       <c r="G273" s="56"/>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="8" t="str">
         <f>IF(ISBLANK(B274),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B274))</f>
         <v/>
@@ -5412,7 +5432,7 @@
       <c r="F274" s="15"/>
       <c r="G274" s="55"/>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="16" t="str">
         <f>IF(ISBLANK(B275),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B275))</f>
         <v/>
@@ -5424,7 +5444,7 @@
       <c r="F275" s="17"/>
       <c r="G275" s="56"/>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="8" t="str">
         <f>IF(ISBLANK(B276),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B276))</f>
         <v/>
@@ -5436,7 +5456,7 @@
       <c r="F276" s="15"/>
       <c r="G276" s="55"/>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="16" t="str">
         <f>IF(ISBLANK(B277),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B277))</f>
         <v/>
@@ -5448,7 +5468,7 @@
       <c r="F277" s="17"/>
       <c r="G277" s="56"/>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="8" t="str">
         <f>IF(ISBLANK(B278),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B278))</f>
         <v/>
@@ -5460,7 +5480,7 @@
       <c r="F278" s="15"/>
       <c r="G278" s="55"/>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="16" t="str">
         <f>IF(ISBLANK(B279),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B279))</f>
         <v/>
@@ -5472,7 +5492,7 @@
       <c r="F279" s="17"/>
       <c r="G279" s="56"/>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="8" t="str">
         <f>IF(ISBLANK(B280),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B280))</f>
         <v/>
@@ -5484,7 +5504,7 @@
       <c r="F280" s="15"/>
       <c r="G280" s="55"/>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="16" t="str">
         <f>IF(ISBLANK(B281),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B281))</f>
         <v/>
@@ -5496,7 +5516,7 @@
       <c r="F281" s="17"/>
       <c r="G281" s="56"/>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="8" t="str">
         <f>IF(ISBLANK(B282),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B282))</f>
         <v/>
@@ -5508,7 +5528,7 @@
       <c r="F282" s="15"/>
       <c r="G282" s="55"/>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="16" t="str">
         <f>IF(ISBLANK(B283),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B283))</f>
         <v/>
@@ -5520,7 +5540,7 @@
       <c r="F283" s="17"/>
       <c r="G283" s="56"/>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="8" t="str">
         <f>IF(ISBLANK(B284),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B284))</f>
         <v/>
@@ -5532,7 +5552,7 @@
       <c r="F284" s="15"/>
       <c r="G284" s="55"/>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="16" t="str">
         <f>IF(ISBLANK(B285),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B285))</f>
         <v/>
@@ -5544,7 +5564,7 @@
       <c r="F285" s="17"/>
       <c r="G285" s="56"/>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="8" t="str">
         <f>IF(ISBLANK(B286),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B286))</f>
         <v/>
@@ -5556,7 +5576,7 @@
       <c r="F286" s="15"/>
       <c r="G286" s="55"/>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="16" t="str">
         <f>IF(ISBLANK(B287),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B287))</f>
         <v/>
@@ -5568,7 +5588,7 @@
       <c r="F287" s="17"/>
       <c r="G287" s="56"/>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="8" t="str">
         <f>IF(ISBLANK(B288),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B288))</f>
         <v/>
@@ -5580,7 +5600,7 @@
       <c r="F288" s="15"/>
       <c r="G288" s="55"/>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" s="16" t="str">
         <f>IF(ISBLANK(B289),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B289))</f>
         <v/>
@@ -5592,7 +5612,7 @@
       <c r="F289" s="17"/>
       <c r="G289" s="56"/>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="8" t="str">
         <f>IF(ISBLANK(B290),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B290))</f>
         <v/>
@@ -5604,7 +5624,7 @@
       <c r="F290" s="15"/>
       <c r="G290" s="55"/>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="16" t="str">
         <f>IF(ISBLANK(B291),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B291))</f>
         <v/>
@@ -5616,7 +5636,7 @@
       <c r="F291" s="17"/>
       <c r="G291" s="56"/>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" s="8" t="str">
         <f>IF(ISBLANK(B292),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B292))</f>
         <v/>
@@ -5628,7 +5648,7 @@
       <c r="F292" s="15"/>
       <c r="G292" s="55"/>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="16" t="str">
         <f>IF(ISBLANK(B293),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B293))</f>
         <v/>
@@ -5640,7 +5660,7 @@
       <c r="F293" s="17"/>
       <c r="G293" s="56"/>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="8" t="str">
         <f>IF(ISBLANK(B294),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B294))</f>
         <v/>
@@ -5652,7 +5672,7 @@
       <c r="F294" s="15"/>
       <c r="G294" s="55"/>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" s="16" t="str">
         <f>IF(ISBLANK(B295),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B295))</f>
         <v/>
@@ -5664,7 +5684,7 @@
       <c r="F295" s="17"/>
       <c r="G295" s="56"/>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" s="8" t="str">
         <f>IF(ISBLANK(B296),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B296))</f>
         <v/>
@@ -5676,7 +5696,7 @@
       <c r="F296" s="15"/>
       <c r="G296" s="55"/>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" s="16" t="str">
         <f>IF(ISBLANK(B297),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B297))</f>
         <v/>
@@ -5688,7 +5708,7 @@
       <c r="F297" s="17"/>
       <c r="G297" s="56"/>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" s="8" t="str">
         <f>IF(ISBLANK(B298),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B298))</f>
         <v/>
@@ -5700,7 +5720,7 @@
       <c r="F298" s="15"/>
       <c r="G298" s="55"/>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" s="16" t="str">
         <f>IF(ISBLANK(B299),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B299))</f>
         <v/>
@@ -5712,7 +5732,7 @@
       <c r="F299" s="17"/>
       <c r="G299" s="56"/>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" s="8" t="str">
         <f>IF(ISBLANK(B300),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B300))</f>
         <v/>
@@ -5724,7 +5744,7 @@
       <c r="F300" s="15"/>
       <c r="G300" s="55"/>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" s="16" t="str">
         <f>IF(ISBLANK(B301),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B301))</f>
         <v/>
@@ -5736,7 +5756,7 @@
       <c r="F301" s="17"/>
       <c r="G301" s="56"/>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" s="8" t="str">
         <f>IF(ISBLANK(B302),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B302))</f>
         <v/>
@@ -5748,7 +5768,7 @@
       <c r="F302" s="15"/>
       <c r="G302" s="55"/>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" s="16" t="str">
         <f>IF(ISBLANK(B303),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B303))</f>
         <v/>
@@ -5760,7 +5780,7 @@
       <c r="F303" s="17"/>
       <c r="G303" s="56"/>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" s="8" t="str">
         <f>IF(ISBLANK(B304),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B304))</f>
         <v/>
@@ -5772,7 +5792,7 @@
       <c r="F304" s="15"/>
       <c r="G304" s="55"/>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" s="16" t="str">
         <f>IF(ISBLANK(B305),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B305))</f>
         <v/>
@@ -5784,7 +5804,7 @@
       <c r="F305" s="17"/>
       <c r="G305" s="56"/>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" s="8" t="str">
         <f>IF(ISBLANK(B306),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B306))</f>
         <v/>
@@ -5796,7 +5816,7 @@
       <c r="F306" s="15"/>
       <c r="G306" s="55"/>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" s="16" t="str">
         <f>IF(ISBLANK(B307),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B307))</f>
         <v/>
@@ -5808,7 +5828,7 @@
       <c r="F307" s="17"/>
       <c r="G307" s="56"/>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" s="8" t="str">
         <f>IF(ISBLANK(B308),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B308))</f>
         <v/>
@@ -5820,7 +5840,7 @@
       <c r="F308" s="15"/>
       <c r="G308" s="55"/>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" s="16" t="str">
         <f>IF(ISBLANK(B309),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B309))</f>
         <v/>
@@ -5832,7 +5852,7 @@
       <c r="F309" s="17"/>
       <c r="G309" s="56"/>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" s="8" t="str">
         <f>IF(ISBLANK(B310),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B310))</f>
         <v/>
@@ -5844,7 +5864,7 @@
       <c r="F310" s="15"/>
       <c r="G310" s="55"/>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" s="16" t="str">
         <f>IF(ISBLANK(B311),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B311))</f>
         <v/>
@@ -5856,7 +5876,7 @@
       <c r="F311" s="17"/>
       <c r="G311" s="56"/>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" s="8" t="str">
         <f>IF(ISBLANK(B312),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B312))</f>
         <v/>
@@ -5868,7 +5888,7 @@
       <c r="F312" s="15"/>
       <c r="G312" s="55"/>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" s="16" t="str">
         <f>IF(ISBLANK(B313),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B313))</f>
         <v/>
@@ -5880,7 +5900,7 @@
       <c r="F313" s="17"/>
       <c r="G313" s="56"/>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" s="8" t="str">
         <f>IF(ISBLANK(B314),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B314))</f>
         <v/>
@@ -5892,7 +5912,7 @@
       <c r="F314" s="15"/>
       <c r="G314" s="55"/>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" s="16" t="str">
         <f>IF(ISBLANK(B315),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B315))</f>
         <v/>
@@ -5904,7 +5924,7 @@
       <c r="F315" s="17"/>
       <c r="G315" s="56"/>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" s="8" t="str">
         <f>IF(ISBLANK(B316),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B316))</f>
         <v/>
@@ -5916,7 +5936,7 @@
       <c r="F316" s="15"/>
       <c r="G316" s="55"/>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" s="16" t="str">
         <f>IF(ISBLANK(B317),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B317))</f>
         <v/>
@@ -5928,7 +5948,7 @@
       <c r="F317" s="17"/>
       <c r="G317" s="56"/>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" s="8" t="str">
         <f>IF(ISBLANK(B318),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B318))</f>
         <v/>
@@ -5940,7 +5960,7 @@
       <c r="F318" s="15"/>
       <c r="G318" s="55"/>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" s="16" t="str">
         <f>IF(ISBLANK(B319),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B319))</f>
         <v/>
@@ -5952,7 +5972,7 @@
       <c r="F319" s="17"/>
       <c r="G319" s="56"/>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" s="8" t="str">
         <f>IF(ISBLANK(B320),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B320))</f>
         <v/>
@@ -5964,7 +5984,7 @@
       <c r="F320" s="15"/>
       <c r="G320" s="55"/>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" s="16" t="str">
         <f>IF(ISBLANK(B321),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B321))</f>
         <v/>
@@ -5976,7 +5996,7 @@
       <c r="F321" s="17"/>
       <c r="G321" s="56"/>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" s="8" t="str">
         <f>IF(ISBLANK(B322),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B322))</f>
         <v/>
@@ -5988,7 +6008,7 @@
       <c r="F322" s="15"/>
       <c r="G322" s="55"/>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" s="16" t="str">
         <f>IF(ISBLANK(B323),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B323))</f>
         <v/>
@@ -6000,7 +6020,7 @@
       <c r="F323" s="17"/>
       <c r="G323" s="56"/>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" s="8" t="str">
         <f>IF(ISBLANK(B324),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B324))</f>
         <v/>
@@ -6012,7 +6032,7 @@
       <c r="F324" s="15"/>
       <c r="G324" s="55"/>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" s="16" t="str">
         <f>IF(ISBLANK(B325),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B325))</f>
         <v/>
@@ -6024,7 +6044,7 @@
       <c r="F325" s="17"/>
       <c r="G325" s="56"/>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" s="8" t="str">
         <f>IF(ISBLANK(B326),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B326))</f>
         <v/>
@@ -6036,7 +6056,7 @@
       <c r="F326" s="15"/>
       <c r="G326" s="55"/>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" s="16" t="str">
         <f>IF(ISBLANK(B327),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B327))</f>
         <v/>
@@ -6048,7 +6068,7 @@
       <c r="F327" s="17"/>
       <c r="G327" s="56"/>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" s="8" t="str">
         <f>IF(ISBLANK(B328),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B328))</f>
         <v/>
@@ -6060,7 +6080,7 @@
       <c r="F328" s="15"/>
       <c r="G328" s="55"/>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" s="16" t="str">
         <f>IF(ISBLANK(B329),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B329))</f>
         <v/>
@@ -6072,7 +6092,7 @@
       <c r="F329" s="17"/>
       <c r="G329" s="56"/>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" s="8" t="str">
         <f>IF(ISBLANK(B330),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B330))</f>
         <v/>
@@ -6084,7 +6104,7 @@
       <c r="F330" s="15"/>
       <c r="G330" s="55"/>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" s="16" t="str">
         <f>IF(ISBLANK(B331),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B331))</f>
         <v/>
@@ -6096,7 +6116,7 @@
       <c r="F331" s="17"/>
       <c r="G331" s="56"/>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" s="8" t="str">
         <f>IF(ISBLANK(B332),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B332))</f>
         <v/>
@@ -6108,7 +6128,7 @@
       <c r="F332" s="15"/>
       <c r="G332" s="55"/>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" s="16" t="str">
         <f>IF(ISBLANK(B333),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B333))</f>
         <v/>
@@ -6120,7 +6140,7 @@
       <c r="F333" s="17"/>
       <c r="G333" s="56"/>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" s="8" t="str">
         <f>IF(ISBLANK(B334),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B334))</f>
         <v/>
@@ -6132,7 +6152,7 @@
       <c r="F334" s="15"/>
       <c r="G334" s="55"/>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" s="16" t="str">
         <f>IF(ISBLANK(B335),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B335))</f>
         <v/>
@@ -6144,7 +6164,7 @@
       <c r="F335" s="17"/>
       <c r="G335" s="56"/>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" s="8" t="str">
         <f>IF(ISBLANK(B336),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B336))</f>
         <v/>
@@ -6156,7 +6176,7 @@
       <c r="F336" s="15"/>
       <c r="G336" s="55"/>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" s="16" t="str">
         <f>IF(ISBLANK(B337),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B337))</f>
         <v/>
@@ -6168,7 +6188,7 @@
       <c r="F337" s="17"/>
       <c r="G337" s="56"/>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" s="8" t="str">
         <f>IF(ISBLANK(B338),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B338))</f>
         <v/>
@@ -6180,7 +6200,7 @@
       <c r="F338" s="15"/>
       <c r="G338" s="55"/>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" s="16" t="str">
         <f>IF(ISBLANK(B339),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B339))</f>
         <v/>
@@ -6192,7 +6212,7 @@
       <c r="F339" s="17"/>
       <c r="G339" s="56"/>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" s="8" t="str">
         <f>IF(ISBLANK(B340),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B340))</f>
         <v/>
@@ -6204,7 +6224,7 @@
       <c r="F340" s="15"/>
       <c r="G340" s="55"/>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" s="16" t="str">
         <f>IF(ISBLANK(B341),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B341))</f>
         <v/>
@@ -6216,7 +6236,7 @@
       <c r="F341" s="17"/>
       <c r="G341" s="56"/>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" s="8" t="str">
         <f>IF(ISBLANK(B342),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B342))</f>
         <v/>
@@ -6228,7 +6248,7 @@
       <c r="F342" s="15"/>
       <c r="G342" s="55"/>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" s="16" t="str">
         <f>IF(ISBLANK(B343),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B343))</f>
         <v/>
@@ -6240,7 +6260,7 @@
       <c r="F343" s="17"/>
       <c r="G343" s="56"/>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" s="8" t="str">
         <f>IF(ISBLANK(B344),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B344))</f>
         <v/>
@@ -6252,7 +6272,7 @@
       <c r="F344" s="15"/>
       <c r="G344" s="55"/>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" s="16" t="str">
         <f>IF(ISBLANK(B345),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B345))</f>
         <v/>
@@ -6264,7 +6284,7 @@
       <c r="F345" s="17"/>
       <c r="G345" s="56"/>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" s="8" t="str">
         <f>IF(ISBLANK(B346),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B346))</f>
         <v/>
@@ -6276,7 +6296,7 @@
       <c r="F346" s="15"/>
       <c r="G346" s="55"/>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" s="16" t="str">
         <f>IF(ISBLANK(B347),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B347))</f>
         <v/>
@@ -6288,7 +6308,7 @@
       <c r="F347" s="17"/>
       <c r="G347" s="56"/>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" s="8" t="str">
         <f>IF(ISBLANK(B348),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B348))</f>
         <v/>
@@ -6300,7 +6320,7 @@
       <c r="F348" s="15"/>
       <c r="G348" s="55"/>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" s="16" t="str">
         <f>IF(ISBLANK(B349),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B349))</f>
         <v/>
@@ -6312,7 +6332,7 @@
       <c r="F349" s="17"/>
       <c r="G349" s="56"/>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" s="8" t="str">
         <f>IF(ISBLANK(B350),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B350))</f>
         <v/>
@@ -6324,7 +6344,7 @@
       <c r="F350" s="15"/>
       <c r="G350" s="55"/>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" s="16" t="str">
         <f>IF(ISBLANK(B351),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B351))</f>
         <v/>
@@ -6336,7 +6356,7 @@
       <c r="F351" s="17"/>
       <c r="G351" s="56"/>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" s="8" t="str">
         <f>IF(ISBLANK(B352),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B352))</f>
         <v/>
@@ -6348,7 +6368,7 @@
       <c r="F352" s="15"/>
       <c r="G352" s="55"/>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" s="16" t="str">
         <f>IF(ISBLANK(B353),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B353))</f>
         <v/>
@@ -6360,7 +6380,7 @@
       <c r="F353" s="17"/>
       <c r="G353" s="56"/>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" s="8" t="str">
         <f>IF(ISBLANK(B354),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B354))</f>
         <v/>
@@ -6372,7 +6392,7 @@
       <c r="F354" s="15"/>
       <c r="G354" s="55"/>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" s="16" t="str">
         <f>IF(ISBLANK(B355),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B355))</f>
         <v/>
@@ -6384,7 +6404,7 @@
       <c r="F355" s="17"/>
       <c r="G355" s="56"/>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" s="8" t="str">
         <f>IF(ISBLANK(B356),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B356))</f>
         <v/>
@@ -6396,7 +6416,7 @@
       <c r="F356" s="15"/>
       <c r="G356" s="55"/>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" s="16" t="str">
         <f>IF(ISBLANK(B357),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B357))</f>
         <v/>
@@ -6408,7 +6428,7 @@
       <c r="F357" s="17"/>
       <c r="G357" s="56"/>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" s="8" t="str">
         <f>IF(ISBLANK(B358),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B358))</f>
         <v/>
@@ -6420,7 +6440,7 @@
       <c r="F358" s="15"/>
       <c r="G358" s="55"/>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" s="16" t="str">
         <f>IF(ISBLANK(B359),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B359))</f>
         <v/>
@@ -6432,7 +6452,7 @@
       <c r="F359" s="17"/>
       <c r="G359" s="56"/>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" s="8" t="str">
         <f>IF(ISBLANK(B360),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B360))</f>
         <v/>
@@ -6444,7 +6464,7 @@
       <c r="F360" s="15"/>
       <c r="G360" s="55"/>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" s="16" t="str">
         <f>IF(ISBLANK(B361),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B361))</f>
         <v/>
@@ -6456,7 +6476,7 @@
       <c r="F361" s="17"/>
       <c r="G361" s="56"/>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" s="8" t="str">
         <f>IF(ISBLANK(B362),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B362))</f>
         <v/>
@@ -6468,7 +6488,7 @@
       <c r="F362" s="15"/>
       <c r="G362" s="55"/>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" s="16" t="str">
         <f>IF(ISBLANK(B363),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B363))</f>
         <v/>
@@ -6480,7 +6500,7 @@
       <c r="F363" s="17"/>
       <c r="G363" s="56"/>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" s="8" t="str">
         <f>IF(ISBLANK(B364),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B364))</f>
         <v/>
@@ -6492,7 +6512,7 @@
       <c r="F364" s="15"/>
       <c r="G364" s="55"/>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" s="16" t="str">
         <f>IF(ISBLANK(B365),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B365))</f>
         <v/>
@@ -6504,7 +6524,7 @@
       <c r="F365" s="17"/>
       <c r="G365" s="56"/>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" s="8" t="str">
         <f>IF(ISBLANK(B366),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B366))</f>
         <v/>
@@ -6516,7 +6536,7 @@
       <c r="F366" s="15"/>
       <c r="G366" s="55"/>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" s="16" t="str">
         <f>IF(ISBLANK(B367),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B367))</f>
         <v/>
@@ -6528,7 +6548,7 @@
       <c r="F367" s="17"/>
       <c r="G367" s="56"/>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" s="8" t="str">
         <f>IF(ISBLANK(B368),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B368))</f>
         <v/>
@@ -6540,7 +6560,7 @@
       <c r="F368" s="15"/>
       <c r="G368" s="55"/>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" s="16" t="str">
         <f>IF(ISBLANK(B369),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B369))</f>
         <v/>
@@ -6552,7 +6572,7 @@
       <c r="F369" s="17"/>
       <c r="G369" s="56"/>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" s="8" t="str">
         <f>IF(ISBLANK(B370),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B370))</f>
         <v/>
@@ -6564,7 +6584,7 @@
       <c r="F370" s="15"/>
       <c r="G370" s="55"/>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" s="16" t="str">
         <f>IF(ISBLANK(B371),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B371))</f>
         <v/>
@@ -6576,7 +6596,7 @@
       <c r="F371" s="17"/>
       <c r="G371" s="56"/>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" s="8" t="str">
         <f>IF(ISBLANK(B372),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B372))</f>
         <v/>
@@ -6588,7 +6608,7 @@
       <c r="F372" s="15"/>
       <c r="G372" s="55"/>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" s="16" t="str">
         <f>IF(ISBLANK(B373),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B373))</f>
         <v/>
@@ -6600,7 +6620,7 @@
       <c r="F373" s="17"/>
       <c r="G373" s="56"/>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" s="8" t="str">
         <f>IF(ISBLANK(B374),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B374))</f>
         <v/>
@@ -6612,7 +6632,7 @@
       <c r="F374" s="15"/>
       <c r="G374" s="55"/>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A375" s="16" t="str">
         <f>IF(ISBLANK(B375),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B375))</f>
         <v/>
@@ -6624,7 +6644,7 @@
       <c r="F375" s="17"/>
       <c r="G375" s="56"/>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376" s="8" t="str">
         <f>IF(ISBLANK(B376),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B376))</f>
         <v/>
@@ -6636,7 +6656,7 @@
       <c r="F376" s="15"/>
       <c r="G376" s="55"/>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" s="16" t="str">
         <f>IF(ISBLANK(B377),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B377))</f>
         <v/>
@@ -6648,7 +6668,7 @@
       <c r="F377" s="17"/>
       <c r="G377" s="56"/>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" s="8" t="str">
         <f>IF(ISBLANK(B378),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B378))</f>
         <v/>
@@ -6660,7 +6680,7 @@
       <c r="F378" s="15"/>
       <c r="G378" s="55"/>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" s="16" t="str">
         <f>IF(ISBLANK(B379),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B379))</f>
         <v/>
@@ -6672,7 +6692,7 @@
       <c r="F379" s="17"/>
       <c r="G379" s="56"/>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" s="8" t="str">
         <f>IF(ISBLANK(B380),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B380))</f>
         <v/>
@@ -6684,7 +6704,7 @@
       <c r="F380" s="15"/>
       <c r="G380" s="55"/>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" s="16" t="str">
         <f>IF(ISBLANK(B381),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B381))</f>
         <v/>
@@ -6696,7 +6716,7 @@
       <c r="F381" s="17"/>
       <c r="G381" s="56"/>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" s="8" t="str">
         <f>IF(ISBLANK(B382),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B382))</f>
         <v/>
@@ -6708,7 +6728,7 @@
       <c r="F382" s="15"/>
       <c r="G382" s="55"/>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" s="16" t="str">
         <f>IF(ISBLANK(B383),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B383))</f>
         <v/>
@@ -6720,7 +6740,7 @@
       <c r="F383" s="17"/>
       <c r="G383" s="56"/>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384" s="8" t="str">
         <f>IF(ISBLANK(B384),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B384))</f>
         <v/>
@@ -6732,7 +6752,7 @@
       <c r="F384" s="15"/>
       <c r="G384" s="55"/>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385" s="16" t="str">
         <f>IF(ISBLANK(B385),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B385))</f>
         <v/>
@@ -6744,7 +6764,7 @@
       <c r="F385" s="17"/>
       <c r="G385" s="56"/>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386" s="8" t="str">
         <f>IF(ISBLANK(B386),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B386))</f>
         <v/>
@@ -6756,7 +6776,7 @@
       <c r="F386" s="15"/>
       <c r="G386" s="55"/>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387" s="16" t="str">
         <f>IF(ISBLANK(B387),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B387))</f>
         <v/>
@@ -6768,7 +6788,7 @@
       <c r="F387" s="17"/>
       <c r="G387" s="56"/>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388" s="8" t="str">
         <f>IF(ISBLANK(B388),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B388))</f>
         <v/>
@@ -6780,7 +6800,7 @@
       <c r="F388" s="15"/>
       <c r="G388" s="55"/>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389" s="16" t="str">
         <f>IF(ISBLANK(B389),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B389))</f>
         <v/>
@@ -6792,7 +6812,7 @@
       <c r="F389" s="17"/>
       <c r="G389" s="56"/>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390" s="8" t="str">
         <f>IF(ISBLANK(B390),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B390))</f>
         <v/>
@@ -6804,7 +6824,7 @@
       <c r="F390" s="15"/>
       <c r="G390" s="55"/>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A391" s="16" t="str">
         <f>IF(ISBLANK(B391),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B391))</f>
         <v/>
@@ -6816,7 +6836,7 @@
       <c r="F391" s="17"/>
       <c r="G391" s="56"/>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392" s="8" t="str">
         <f>IF(ISBLANK(B392),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B392))</f>
         <v/>
@@ -6828,7 +6848,7 @@
       <c r="F392" s="15"/>
       <c r="G392" s="55"/>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A393" s="16" t="str">
         <f>IF(ISBLANK(B393),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B393))</f>
         <v/>
@@ -6840,7 +6860,7 @@
       <c r="F393" s="17"/>
       <c r="G393" s="56"/>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394" s="8" t="str">
         <f>IF(ISBLANK(B394),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B394))</f>
         <v/>
@@ -6852,7 +6872,7 @@
       <c r="F394" s="15"/>
       <c r="G394" s="55"/>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A395" s="16" t="str">
         <f>IF(ISBLANK(B395),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B395))</f>
         <v/>
@@ -6864,7 +6884,7 @@
       <c r="F395" s="17"/>
       <c r="G395" s="56"/>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396" s="8" t="str">
         <f>IF(ISBLANK(B396),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B396))</f>
         <v/>
@@ -6876,7 +6896,7 @@
       <c r="F396" s="15"/>
       <c r="G396" s="55"/>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397" s="16" t="str">
         <f>IF(ISBLANK(B397),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B397))</f>
         <v/>
@@ -6888,7 +6908,7 @@
       <c r="F397" s="17"/>
       <c r="G397" s="56"/>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398" s="8" t="str">
         <f>IF(ISBLANK(B398),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B398))</f>
         <v/>
@@ -6900,7 +6920,7 @@
       <c r="F398" s="15"/>
       <c r="G398" s="55"/>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A399" s="16" t="str">
         <f>IF(ISBLANK(B399),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B399))</f>
         <v/>
@@ -6912,7 +6932,7 @@
       <c r="F399" s="17"/>
       <c r="G399" s="56"/>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A400" s="8" t="str">
         <f>IF(ISBLANK(B400),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B400))</f>
         <v/>
@@ -6924,7 +6944,7 @@
       <c r="F400" s="15"/>
       <c r="G400" s="55"/>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" s="16" t="str">
         <f>IF(ISBLANK(B401),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B401))</f>
         <v/>
@@ -6936,7 +6956,7 @@
       <c r="F401" s="17"/>
       <c r="G401" s="56"/>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" s="8" t="str">
         <f>IF(ISBLANK(B402),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B402))</f>
         <v/>
@@ -6948,7 +6968,7 @@
       <c r="F402" s="15"/>
       <c r="G402" s="55"/>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" s="16" t="str">
         <f>IF(ISBLANK(B403),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B403))</f>
         <v/>
@@ -6960,7 +6980,7 @@
       <c r="F403" s="17"/>
       <c r="G403" s="56"/>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404" s="8" t="str">
         <f>IF(ISBLANK(B404),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B404))</f>
         <v/>
@@ -6972,7 +6992,7 @@
       <c r="F404" s="15"/>
       <c r="G404" s="55"/>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405" s="16" t="str">
         <f>IF(ISBLANK(B405),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B405))</f>
         <v/>
@@ -6984,7 +7004,7 @@
       <c r="F405" s="17"/>
       <c r="G405" s="56"/>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406" s="8" t="str">
         <f>IF(ISBLANK(B406),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B406))</f>
         <v/>
@@ -6996,7 +7016,7 @@
       <c r="F406" s="15"/>
       <c r="G406" s="55"/>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A407" s="16" t="str">
         <f>IF(ISBLANK(B407),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B407))</f>
         <v/>
@@ -7008,7 +7028,7 @@
       <c r="F407" s="17"/>
       <c r="G407" s="56"/>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408" s="8" t="str">
         <f>IF(ISBLANK(B408),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B408))</f>
         <v/>
@@ -7020,7 +7040,7 @@
       <c r="F408" s="15"/>
       <c r="G408" s="55"/>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A409" s="16" t="str">
         <f>IF(ISBLANK(B409),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B409))</f>
         <v/>
@@ -7032,7 +7052,7 @@
       <c r="F409" s="17"/>
       <c r="G409" s="56"/>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410" s="8" t="str">
         <f>IF(ISBLANK(B410),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B410))</f>
         <v/>
@@ -7044,7 +7064,7 @@
       <c r="F410" s="15"/>
       <c r="G410" s="55"/>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" s="16" t="str">
         <f>IF(ISBLANK(B411),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B411))</f>
         <v/>
@@ -7056,7 +7076,7 @@
       <c r="F411" s="17"/>
       <c r="G411" s="56"/>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A412" s="8" t="str">
         <f>IF(ISBLANK(B412),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B412))</f>
         <v/>
@@ -7068,7 +7088,7 @@
       <c r="F412" s="15"/>
       <c r="G412" s="55"/>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413" s="16" t="str">
         <f>IF(ISBLANK(B413),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B413))</f>
         <v/>
@@ -7080,7 +7100,7 @@
       <c r="F413" s="17"/>
       <c r="G413" s="56"/>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A414" s="8" t="str">
         <f>IF(ISBLANK(B414),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B414))</f>
         <v/>
@@ -7092,7 +7112,7 @@
       <c r="F414" s="15"/>
       <c r="G414" s="55"/>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415" s="16" t="str">
         <f>IF(ISBLANK(B415),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B415))</f>
         <v/>
@@ -7104,7 +7124,7 @@
       <c r="F415" s="17"/>
       <c r="G415" s="56"/>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" s="8" t="str">
         <f>IF(ISBLANK(B416),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B416))</f>
         <v/>
@@ -7116,7 +7136,7 @@
       <c r="F416" s="15"/>
       <c r="G416" s="55"/>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A417" s="16" t="str">
         <f>IF(ISBLANK(B417),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B417))</f>
         <v/>
@@ -7128,7 +7148,7 @@
       <c r="F417" s="17"/>
       <c r="G417" s="56"/>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A418" s="8" t="str">
         <f>IF(ISBLANK(B418),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B418))</f>
         <v/>
@@ -7140,7 +7160,7 @@
       <c r="F418" s="15"/>
       <c r="G418" s="55"/>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A419" s="16" t="str">
         <f>IF(ISBLANK(B419),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B419))</f>
         <v/>
@@ -7152,7 +7172,7 @@
       <c r="F419" s="17"/>
       <c r="G419" s="56"/>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A420" s="8" t="str">
         <f>IF(ISBLANK(B420),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B420))</f>
         <v/>
@@ -7164,7 +7184,7 @@
       <c r="F420" s="15"/>
       <c r="G420" s="55"/>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A421" s="16" t="str">
         <f>IF(ISBLANK(B421),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B421))</f>
         <v/>
@@ -7176,7 +7196,7 @@
       <c r="F421" s="17"/>
       <c r="G421" s="56"/>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A422" s="8" t="str">
         <f>IF(ISBLANK(B422),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B422))</f>
         <v/>
@@ -7188,7 +7208,7 @@
       <c r="F422" s="15"/>
       <c r="G422" s="55"/>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423" s="16" t="str">
         <f>IF(ISBLANK(B423),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B423))</f>
         <v/>
@@ -7200,7 +7220,7 @@
       <c r="F423" s="17"/>
       <c r="G423" s="56"/>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A424" s="8" t="str">
         <f>IF(ISBLANK(B424),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B424))</f>
         <v/>
@@ -7212,7 +7232,7 @@
       <c r="F424" s="15"/>
       <c r="G424" s="55"/>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A425" s="16" t="str">
         <f>IF(ISBLANK(B425),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B425))</f>
         <v/>
@@ -7224,7 +7244,7 @@
       <c r="F425" s="17"/>
       <c r="G425" s="56"/>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A426" s="8" t="str">
         <f>IF(ISBLANK(B426),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B426))</f>
         <v/>
@@ -7236,7 +7256,7 @@
       <c r="F426" s="15"/>
       <c r="G426" s="55"/>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A427" s="16" t="str">
         <f>IF(ISBLANK(B427),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B427))</f>
         <v/>
@@ -7248,7 +7268,7 @@
       <c r="F427" s="17"/>
       <c r="G427" s="56"/>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A428" s="8" t="str">
         <f>IF(ISBLANK(B428),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B428))</f>
         <v/>
@@ -7260,7 +7280,7 @@
       <c r="F428" s="15"/>
       <c r="G428" s="55"/>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" s="16" t="str">
         <f>IF(ISBLANK(B429),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B429))</f>
         <v/>
@@ -7272,7 +7292,7 @@
       <c r="F429" s="17"/>
       <c r="G429" s="56"/>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" s="8" t="str">
         <f>IF(ISBLANK(B430),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B430))</f>
         <v/>
@@ -7284,7 +7304,7 @@
       <c r="F430" s="15"/>
       <c r="G430" s="55"/>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A431" s="16" t="str">
         <f>IF(ISBLANK(B431),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B431))</f>
         <v/>
@@ -7296,7 +7316,7 @@
       <c r="F431" s="17"/>
       <c r="G431" s="56"/>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A432" s="8" t="str">
         <f>IF(ISBLANK(B432),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B432))</f>
         <v/>
@@ -7308,7 +7328,7 @@
       <c r="F432" s="15"/>
       <c r="G432" s="55"/>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A433" s="16" t="str">
         <f>IF(ISBLANK(B433),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B433))</f>
         <v/>
@@ -7320,7 +7340,7 @@
       <c r="F433" s="17"/>
       <c r="G433" s="56"/>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A434" s="8" t="str">
         <f>IF(ISBLANK(B434),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B434))</f>
         <v/>
@@ -7332,7 +7352,7 @@
       <c r="F434" s="15"/>
       <c r="G434" s="55"/>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A435" s="16" t="str">
         <f>IF(ISBLANK(B435),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B435))</f>
         <v/>
@@ -7344,7 +7364,7 @@
       <c r="F435" s="17"/>
       <c r="G435" s="56"/>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A436" s="8" t="str">
         <f>IF(ISBLANK(B436),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B436))</f>
         <v/>
@@ -7356,7 +7376,7 @@
       <c r="F436" s="15"/>
       <c r="G436" s="55"/>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A437" s="16" t="str">
         <f>IF(ISBLANK(B437),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B437))</f>
         <v/>
@@ -7368,7 +7388,7 @@
       <c r="F437" s="17"/>
       <c r="G437" s="56"/>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A438" s="8" t="str">
         <f>IF(ISBLANK(B438),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B438))</f>
         <v/>
@@ -7380,7 +7400,7 @@
       <c r="F438" s="15"/>
       <c r="G438" s="55"/>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A439" s="16" t="str">
         <f>IF(ISBLANK(B439),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B439))</f>
         <v/>
@@ -7392,7 +7412,7 @@
       <c r="F439" s="17"/>
       <c r="G439" s="56"/>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A440" s="8" t="str">
         <f>IF(ISBLANK(B440),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B440))</f>
         <v/>
@@ -7404,7 +7424,7 @@
       <c r="F440" s="15"/>
       <c r="G440" s="55"/>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A441" s="16" t="str">
         <f>IF(ISBLANK(B441),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B441))</f>
         <v/>
@@ -7416,7 +7436,7 @@
       <c r="F441" s="17"/>
       <c r="G441" s="56"/>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A442" s="8" t="str">
         <f>IF(ISBLANK(B442),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B442))</f>
         <v/>
@@ -7428,7 +7448,7 @@
       <c r="F442" s="15"/>
       <c r="G442" s="55"/>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A443" s="16" t="str">
         <f>IF(ISBLANK(B443),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B443))</f>
         <v/>
@@ -7440,7 +7460,7 @@
       <c r="F443" s="17"/>
       <c r="G443" s="56"/>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A444" s="8" t="str">
         <f>IF(ISBLANK(B444),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B444))</f>
         <v/>
@@ -7452,7 +7472,7 @@
       <c r="F444" s="15"/>
       <c r="G444" s="55"/>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A445" s="16" t="str">
         <f>IF(ISBLANK(B445),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B445))</f>
         <v/>
@@ -7464,7 +7484,7 @@
       <c r="F445" s="17"/>
       <c r="G445" s="56"/>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A446" s="8" t="str">
         <f>IF(ISBLANK(B446),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B446))</f>
         <v/>
@@ -7476,7 +7496,7 @@
       <c r="F446" s="15"/>
       <c r="G446" s="55"/>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A447" s="16" t="str">
         <f>IF(ISBLANK(B447),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B447))</f>
         <v/>
@@ -7488,7 +7508,7 @@
       <c r="F447" s="17"/>
       <c r="G447" s="56"/>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A448" s="8" t="str">
         <f>IF(ISBLANK(B448),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B448))</f>
         <v/>
@@ -7500,7 +7520,7 @@
       <c r="F448" s="15"/>
       <c r="G448" s="55"/>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A449" s="16" t="str">
         <f>IF(ISBLANK(B449),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B449))</f>
         <v/>
@@ -7512,7 +7532,7 @@
       <c r="F449" s="17"/>
       <c r="G449" s="56"/>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A450" s="8" t="str">
         <f>IF(ISBLANK(B450),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B450))</f>
         <v/>
@@ -7524,7 +7544,7 @@
       <c r="F450" s="15"/>
       <c r="G450" s="55"/>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A451" s="16" t="str">
         <f>IF(ISBLANK(B451),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B451))</f>
         <v/>
@@ -7536,7 +7556,7 @@
       <c r="F451" s="17"/>
       <c r="G451" s="56"/>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A452" s="8" t="str">
         <f>IF(ISBLANK(B452),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B452))</f>
         <v/>
@@ -7548,7 +7568,7 @@
       <c r="F452" s="15"/>
       <c r="G452" s="55"/>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A453" s="16" t="str">
         <f>IF(ISBLANK(B453),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B453))</f>
         <v/>
@@ -7560,7 +7580,7 @@
       <c r="F453" s="17"/>
       <c r="G453" s="56"/>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A454" s="8" t="str">
         <f>IF(ISBLANK(B454),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B454))</f>
         <v/>
@@ -7572,7 +7592,7 @@
       <c r="F454" s="15"/>
       <c r="G454" s="55"/>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A455" s="16" t="str">
         <f>IF(ISBLANK(B455),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B455))</f>
         <v/>
@@ -7584,7 +7604,7 @@
       <c r="F455" s="17"/>
       <c r="G455" s="56"/>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A456" s="8" t="str">
         <f>IF(ISBLANK(B456),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B456))</f>
         <v/>
@@ -7596,7 +7616,7 @@
       <c r="F456" s="15"/>
       <c r="G456" s="55"/>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A457" s="16" t="str">
         <f>IF(ISBLANK(B457),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B457))</f>
         <v/>
@@ -7608,7 +7628,7 @@
       <c r="F457" s="17"/>
       <c r="G457" s="56"/>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A458" s="8" t="str">
         <f>IF(ISBLANK(B458),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B458))</f>
         <v/>
@@ -7620,7 +7640,7 @@
       <c r="F458" s="15"/>
       <c r="G458" s="55"/>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A459" s="16" t="str">
         <f>IF(ISBLANK(B459),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B459))</f>
         <v/>
@@ -7632,7 +7652,7 @@
       <c r="F459" s="17"/>
       <c r="G459" s="56"/>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A460" s="8" t="str">
         <f>IF(ISBLANK(B460),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B460))</f>
         <v/>
@@ -7644,7 +7664,7 @@
       <c r="F460" s="15"/>
       <c r="G460" s="55"/>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A461" s="16" t="str">
         <f>IF(ISBLANK(B461),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B461))</f>
         <v/>
@@ -7656,7 +7676,7 @@
       <c r="F461" s="17"/>
       <c r="G461" s="56"/>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A462" s="8" t="str">
         <f>IF(ISBLANK(B462),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B462))</f>
         <v/>
@@ -7668,7 +7688,7 @@
       <c r="F462" s="15"/>
       <c r="G462" s="55"/>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A463" s="16" t="str">
         <f>IF(ISBLANK(B463),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B463))</f>
         <v/>
@@ -7680,7 +7700,7 @@
       <c r="F463" s="17"/>
       <c r="G463" s="56"/>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A464" s="8" t="str">
         <f>IF(ISBLANK(B464),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B464))</f>
         <v/>
@@ -7692,7 +7712,7 @@
       <c r="F464" s="15"/>
       <c r="G464" s="55"/>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A465" s="16" t="str">
         <f>IF(ISBLANK(B465),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B465))</f>
         <v/>
@@ -7704,7 +7724,7 @@
       <c r="F465" s="17"/>
       <c r="G465" s="56"/>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A466" s="8" t="str">
         <f>IF(ISBLANK(B466),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B466))</f>
         <v/>
@@ -7716,7 +7736,7 @@
       <c r="F466" s="15"/>
       <c r="G466" s="55"/>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A467" s="16" t="str">
         <f>IF(ISBLANK(B467),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B467))</f>
         <v/>
@@ -7728,7 +7748,7 @@
       <c r="F467" s="17"/>
       <c r="G467" s="56"/>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A468" s="8" t="str">
         <f>IF(ISBLANK(B468),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B468))</f>
         <v/>
@@ -7740,7 +7760,7 @@
       <c r="F468" s="15"/>
       <c r="G468" s="55"/>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A469" s="16" t="str">
         <f>IF(ISBLANK(B469),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B469))</f>
         <v/>
@@ -7752,7 +7772,7 @@
       <c r="F469" s="17"/>
       <c r="G469" s="56"/>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A470" s="8" t="str">
         <f>IF(ISBLANK(B470),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B470))</f>
         <v/>
@@ -7764,7 +7784,7 @@
       <c r="F470" s="15"/>
       <c r="G470" s="55"/>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A471" s="16" t="str">
         <f>IF(ISBLANK(B471),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B471))</f>
         <v/>
@@ -7776,7 +7796,7 @@
       <c r="F471" s="17"/>
       <c r="G471" s="56"/>
     </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A472" s="8" t="str">
         <f>IF(ISBLANK(B472),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B472))</f>
         <v/>
@@ -7788,7 +7808,7 @@
       <c r="F472" s="15"/>
       <c r="G472" s="55"/>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A473" s="16" t="str">
         <f>IF(ISBLANK(B473),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B473))</f>
         <v/>
@@ -7800,7 +7820,7 @@
       <c r="F473" s="17"/>
       <c r="G473" s="56"/>
     </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A474" s="8" t="str">
         <f>IF(ISBLANK(B474),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B474))</f>
         <v/>
@@ -7812,7 +7832,7 @@
       <c r="F474" s="15"/>
       <c r="G474" s="55"/>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A475" s="16" t="str">
         <f>IF(ISBLANK(B475),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B475))</f>
         <v/>
@@ -7824,7 +7844,7 @@
       <c r="F475" s="17"/>
       <c r="G475" s="56"/>
     </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A476" s="8" t="str">
         <f>IF(ISBLANK(B476),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B476))</f>
         <v/>
@@ -7836,7 +7856,7 @@
       <c r="F476" s="15"/>
       <c r="G476" s="55"/>
     </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A477" s="16" t="str">
         <f>IF(ISBLANK(B477),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B477))</f>
         <v/>
@@ -7848,7 +7868,7 @@
       <c r="F477" s="17"/>
       <c r="G477" s="56"/>
     </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A478" s="8" t="str">
         <f>IF(ISBLANK(B478),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B478))</f>
         <v/>
@@ -7860,7 +7880,7 @@
       <c r="F478" s="15"/>
       <c r="G478" s="55"/>
     </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A479" s="16" t="str">
         <f>IF(ISBLANK(B479),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B479))</f>
         <v/>
@@ -7872,7 +7892,7 @@
       <c r="F479" s="17"/>
       <c r="G479" s="56"/>
     </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A480" s="8" t="str">
         <f>IF(ISBLANK(B480),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B480))</f>
         <v/>
@@ -7884,7 +7904,7 @@
       <c r="F480" s="15"/>
       <c r="G480" s="55"/>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A481" s="16" t="str">
         <f>IF(ISBLANK(B481),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B481))</f>
         <v/>
@@ -7896,7 +7916,7 @@
       <c r="F481" s="17"/>
       <c r="G481" s="56"/>
     </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A482" s="8" t="str">
         <f>IF(ISBLANK(B482),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B482))</f>
         <v/>
@@ -7908,7 +7928,7 @@
       <c r="F482" s="15"/>
       <c r="G482" s="55"/>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A483" s="16" t="str">
         <f>IF(ISBLANK(B483),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B483))</f>
         <v/>
@@ -7920,7 +7940,7 @@
       <c r="F483" s="17"/>
       <c r="G483" s="56"/>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A484" s="8" t="str">
         <f>IF(ISBLANK(B484),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B484))</f>
         <v/>
@@ -7932,7 +7952,7 @@
       <c r="F484" s="15"/>
       <c r="G484" s="55"/>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A485" s="16" t="str">
         <f>IF(ISBLANK(B485),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B485))</f>
         <v/>
@@ -7944,7 +7964,7 @@
       <c r="F485" s="17"/>
       <c r="G485" s="56"/>
     </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A486" s="8" t="str">
         <f>IF(ISBLANK(B486),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B486))</f>
         <v/>
@@ -7956,7 +7976,7 @@
       <c r="F486" s="15"/>
       <c r="G486" s="55"/>
     </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A487" s="16" t="str">
         <f>IF(ISBLANK(B487),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B487))</f>
         <v/>
@@ -7968,7 +7988,7 @@
       <c r="F487" s="17"/>
       <c r="G487" s="56"/>
     </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A488" s="8" t="str">
         <f>IF(ISBLANK(B488),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B488))</f>
         <v/>
@@ -7980,7 +8000,7 @@
       <c r="F488" s="15"/>
       <c r="G488" s="55"/>
     </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A489" s="16" t="str">
         <f>IF(ISBLANK(B489),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B489))</f>
         <v/>
@@ -7992,7 +8012,7 @@
       <c r="F489" s="17"/>
       <c r="G489" s="56"/>
     </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A490" s="8" t="str">
         <f>IF(ISBLANK(B490),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B490))</f>
         <v/>
@@ -8004,7 +8024,7 @@
       <c r="F490" s="15"/>
       <c r="G490" s="55"/>
     </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A491" s="16" t="str">
         <f>IF(ISBLANK(B491),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B491))</f>
         <v/>
@@ -8016,7 +8036,7 @@
       <c r="F491" s="17"/>
       <c r="G491" s="56"/>
     </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A492" s="8" t="str">
         <f>IF(ISBLANK(B492),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B492))</f>
         <v/>
@@ -8028,7 +8048,7 @@
       <c r="F492" s="15"/>
       <c r="G492" s="55"/>
     </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A493" s="16" t="str">
         <f>IF(ISBLANK(B493),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B493))</f>
         <v/>
@@ -8040,7 +8060,7 @@
       <c r="F493" s="17"/>
       <c r="G493" s="56"/>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A494" s="8" t="str">
         <f>IF(ISBLANK(B494),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B494))</f>
         <v/>
@@ -8052,7 +8072,7 @@
       <c r="F494" s="15"/>
       <c r="G494" s="55"/>
     </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A495" s="16" t="str">
         <f>IF(ISBLANK(B495),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B495))</f>
         <v/>
@@ -8064,7 +8084,7 @@
       <c r="F495" s="17"/>
       <c r="G495" s="56"/>
     </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A496" s="8" t="str">
         <f>IF(ISBLANK(B496),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B496))</f>
         <v/>
@@ -8076,7 +8096,7 @@
       <c r="F496" s="15"/>
       <c r="G496" s="55"/>
     </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A497" s="16" t="str">
         <f>IF(ISBLANK(B497),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B497))</f>
         <v/>
@@ -8088,7 +8108,7 @@
       <c r="F497" s="17"/>
       <c r="G497" s="56"/>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A498" s="8" t="str">
         <f>IF(ISBLANK(B498),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B498))</f>
         <v/>
@@ -8100,7 +8120,7 @@
       <c r="F498" s="15"/>
       <c r="G498" s="55"/>
     </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A499" s="16" t="str">
         <f>IF(ISBLANK(B499),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B499))</f>
         <v/>
@@ -8112,7 +8132,7 @@
       <c r="F499" s="17"/>
       <c r="G499" s="56"/>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A500" s="8" t="str">
         <f>IF(ISBLANK(B500),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B500))</f>
         <v/>
@@ -8124,7 +8144,7 @@
       <c r="F500" s="15"/>
       <c r="G500" s="55"/>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A501" s="16" t="str">
         <f>IF(ISBLANK(B501),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B501))</f>
         <v/>
@@ -8136,7 +8156,7 @@
       <c r="F501" s="17"/>
       <c r="G501" s="56"/>
     </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A502" s="8" t="str">
         <f>IF(ISBLANK(B502),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B502))</f>
         <v/>
@@ -8148,7 +8168,7 @@
       <c r="F502" s="15"/>
       <c r="G502" s="55"/>
     </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A503" s="16" t="str">
         <f>IF(ISBLANK(B503),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B503))</f>
         <v/>
@@ -8160,7 +8180,7 @@
       <c r="F503" s="17"/>
       <c r="G503" s="56"/>
     </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A504" s="8" t="str">
         <f>IF(ISBLANK(B504),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B504))</f>
         <v/>
@@ -8172,7 +8192,7 @@
       <c r="F504" s="15"/>
       <c r="G504" s="55"/>
     </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A505" s="16" t="str">
         <f>IF(ISBLANK(B505),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B505))</f>
         <v/>
@@ -8184,7 +8204,7 @@
       <c r="F505" s="17"/>
       <c r="G505" s="56"/>
     </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A506" s="8" t="str">
         <f>IF(ISBLANK(B506),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B506))</f>
         <v/>
@@ -8196,7 +8216,7 @@
       <c r="F506" s="15"/>
       <c r="G506" s="55"/>
     </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A507" s="16" t="str">
         <f>IF(ISBLANK(B507),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B507))</f>
         <v/>
@@ -8208,7 +8228,7 @@
       <c r="F507" s="17"/>
       <c r="G507" s="56"/>
     </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A508" s="8" t="str">
         <f>IF(ISBLANK(B508),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B508))</f>
         <v/>
@@ -8220,7 +8240,7 @@
       <c r="F508" s="15"/>
       <c r="G508" s="55"/>
     </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A509" s="16" t="str">
         <f>IF(ISBLANK(B509),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B509))</f>
         <v/>
@@ -8232,7 +8252,7 @@
       <c r="F509" s="17"/>
       <c r="G509" s="56"/>
     </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A510" s="8" t="str">
         <f>IF(ISBLANK(B510),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B510))</f>
         <v/>
@@ -8244,7 +8264,7 @@
       <c r="F510" s="15"/>
       <c r="G510" s="55"/>
     </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A511" s="16" t="str">
         <f>IF(ISBLANK(B511),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B511))</f>
         <v/>
@@ -8256,7 +8276,7 @@
       <c r="F511" s="17"/>
       <c r="G511" s="56"/>
     </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A512" s="8" t="str">
         <f>IF(ISBLANK(B512),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B512))</f>
         <v/>
@@ -8268,7 +8288,7 @@
       <c r="F512" s="15"/>
       <c r="G512" s="55"/>
     </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A513" s="16" t="str">
         <f>IF(ISBLANK(B513),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B513))</f>
         <v/>
@@ -8280,7 +8300,7 @@
       <c r="F513" s="17"/>
       <c r="G513" s="56"/>
     </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A514" s="8" t="str">
         <f>IF(ISBLANK(B514),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B514))</f>
         <v/>
@@ -8292,7 +8312,7 @@
       <c r="F514" s="15"/>
       <c r="G514" s="55"/>
     </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A515" s="16" t="str">
         <f>IF(ISBLANK(B515),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B515))</f>
         <v/>
@@ -8304,7 +8324,7 @@
       <c r="F515" s="17"/>
       <c r="G515" s="56"/>
     </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A516" s="8" t="str">
         <f>IF(ISBLANK(B516),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B516))</f>
         <v/>
@@ -8316,7 +8336,7 @@
       <c r="F516" s="15"/>
       <c r="G516" s="55"/>
     </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A517" s="16" t="str">
         <f>IF(ISBLANK(B517),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B517))</f>
         <v/>
@@ -8328,7 +8348,7 @@
       <c r="F517" s="17"/>
       <c r="G517" s="56"/>
     </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A518" s="8" t="str">
         <f>IF(ISBLANK(B518),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B518))</f>
         <v/>
@@ -8340,7 +8360,7 @@
       <c r="F518" s="15"/>
       <c r="G518" s="55"/>
     </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A519" s="16" t="str">
         <f>IF(ISBLANK(B519),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B519))</f>
         <v/>
@@ -8352,7 +8372,7 @@
       <c r="F519" s="17"/>
       <c r="G519" s="56"/>
     </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A520" s="8" t="str">
         <f>IF(ISBLANK(B520),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B520))</f>
         <v/>
@@ -8364,7 +8384,7 @@
       <c r="F520" s="15"/>
       <c r="G520" s="55"/>
     </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A521" s="16" t="str">
         <f>IF(ISBLANK(B521),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B521))</f>
         <v/>
@@ -8376,7 +8396,7 @@
       <c r="F521" s="17"/>
       <c r="G521" s="56"/>
     </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A522" s="8" t="str">
         <f>IF(ISBLANK(B522),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B522))</f>
         <v/>
@@ -8388,7 +8408,7 @@
       <c r="F522" s="15"/>
       <c r="G522" s="55"/>
     </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A523" s="16" t="str">
         <f>IF(ISBLANK(B523),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B523))</f>
         <v/>
@@ -8400,7 +8420,7 @@
       <c r="F523" s="17"/>
       <c r="G523" s="56"/>
     </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A524" s="8" t="str">
         <f>IF(ISBLANK(B524),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B524))</f>
         <v/>
@@ -8412,7 +8432,7 @@
       <c r="F524" s="15"/>
       <c r="G524" s="55"/>
     </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A525" s="16" t="str">
         <f>IF(ISBLANK(B525),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B525))</f>
         <v/>
@@ -8424,7 +8444,7 @@
       <c r="F525" s="17"/>
       <c r="G525" s="56"/>
     </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A526" s="8" t="str">
         <f>IF(ISBLANK(B526),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B526))</f>
         <v/>
@@ -8436,7 +8456,7 @@
       <c r="F526" s="15"/>
       <c r="G526" s="55"/>
     </row>
-    <row r="527" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A527" s="16" t="str">
         <f>IF(ISBLANK(B527),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B527))</f>
         <v/>
@@ -8448,7 +8468,7 @@
       <c r="F527" s="17"/>
       <c r="G527" s="56"/>
     </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A528" s="8" t="str">
         <f>IF(ISBLANK(B528),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B528))</f>
         <v/>
@@ -8460,7 +8480,7 @@
       <c r="F528" s="15"/>
       <c r="G528" s="55"/>
     </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A529" s="16" t="str">
         <f>IF(ISBLANK(B529),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B529))</f>
         <v/>
@@ -8472,7 +8492,7 @@
       <c r="F529" s="17"/>
       <c r="G529" s="56"/>
     </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A530" s="8" t="str">
         <f>IF(ISBLANK(B530),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B530))</f>
         <v/>
@@ -8484,7 +8504,7 @@
       <c r="F530" s="15"/>
       <c r="G530" s="55"/>
     </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A531" s="16" t="str">
         <f>IF(ISBLANK(B531),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B531))</f>
         <v/>
@@ -8496,7 +8516,7 @@
       <c r="F531" s="17"/>
       <c r="G531" s="56"/>
     </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A532" s="8" t="str">
         <f>IF(ISBLANK(B532),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B532))</f>
         <v/>
@@ -8515,28 +8535,28 @@
     <mergeCell ref="C5:D5"/>
   </mergeCells>
   <conditionalFormatting sqref="E7:E532">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="16" priority="1">
       <formula>$E7="Autre"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="2" stopIfTrue="1">
       <formula>$E7="Design"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="3" stopIfTrue="1">
       <formula>$E7="Présentation"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="4" stopIfTrue="1">
       <formula>$E7="Meeting"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="5" stopIfTrue="1">
       <formula>$E7="Documentation"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="6" stopIfTrue="1">
       <formula>$E7="Test"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="7" stopIfTrue="1">
       <formula>$E7="Analyse"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="9" stopIfTrue="1">
       <formula>$E7="Développement"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8568,14 +8588,14 @@
       <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" hidden="1" customWidth="1"/>
+    <col min="1" max="2" width="10.875" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="29" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5" style="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -8589,14 +8609,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C4,'Journal de travail'!$C$7:$C$532)*60</f>
         <v>0</v>
       </c>
       <c r="B4">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C4,'Journal de travail'!$D$7:$D$532)</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C4" s="25" t="str">
         <f>'Journal de travail'!M8</f>
@@ -8604,17 +8624,17 @@
       </c>
       <c r="D4" s="33">
         <f>(A4+B4)/1440</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.7777777777777776E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$C$7:$C$532)*60</f>
         <v>0</v>
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C5" s="41" t="str">
         <f>'Journal de travail'!M9</f>
@@ -8622,10 +8642,10 @@
       </c>
       <c r="D5" s="33">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.7361111111111112E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C6,'Journal de travail'!$C$7:$C$532)*60</f>
         <v>0</v>
@@ -8643,7 +8663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C7,'Journal de travail'!$C$7:$C$532)*60</f>
         <v>0</v>
@@ -8661,14 +8681,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C8,'Journal de travail'!$C$7:$C$532)*60</f>
         <v>0</v>
       </c>
       <c r="B8">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C8,'Journal de travail'!$D$7:$D$532)</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C8" s="28" t="str">
         <f>'Journal de travail'!M12</f>
@@ -8676,10 +8696,10 @@
       </c>
       <c r="D8" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.7361111111111112E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C9,'Journal de travail'!$C$7:$C$532)*60</f>
         <v>0</v>
@@ -8697,14 +8717,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C10,'Journal de travail'!$C$7:$C$532)*60</f>
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="B10">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C10,'Journal de travail'!$D$7:$D$532)</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C10" s="37" t="str">
         <f>'Journal de travail'!M14</f>
@@ -8712,10 +8732,10 @@
       </c>
       <c r="D10" s="33">
         <f t="shared" si="0"/>
-        <v>0.10416666666666667</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C11,'Journal de travail'!$C$7:$C$532)*60</f>
         <v>0</v>
@@ -8733,16 +8753,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C12" s="23" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="34">
         <f>SUM(D4:D11)</f>
-        <v>0.10416666666666667</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D14" s="38"/>
     </row>
   </sheetData>
@@ -8762,17 +8782,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D4F20F00DBE2EE49BE9523363A2DF18B" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="313dbdbec26224d1c2bb7e3c488b2a4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="99ffe1f3-7857-457f-add0-5bdef636f38d" xmlns:ns3="be0d3259-a7ce-4623-88ec-81594dfcbc1c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4739345e3d2c6be79c5ae1a54d02a4a7" ns2:_="" ns3:_="">
     <xsd:import namespace="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
@@ -8995,6 +9004,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
   <ds:schemaRefs>
@@ -9004,17 +9024,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2FB702A-DCBD-43A8-A34C-6000FD8861AD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9031,4 +9040,15 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Journaux/Journal-de-Travail_RomainDenis.xlsx
+++ b/Journaux/Journal-de-Travail_RomainDenis.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ps04egl\Documents\GitHub\P_PassionLecture\Journaux\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{206FBD9A-7AF7-48A9-B36C-0E99CB2D5E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FCA1831-A5C4-4C68-8C2E-1891C374DDB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Mvap2W10CJFFJsnvkGXSiMLvpngxTMJbJsIKFe7Hzjn0XDcmjGuvBC2FjUCZ/hpRpUhUrG1T4kBlDAIo3yqmSQ==" workbookSaltValue="KXjgXOcsUZI/j7UgPKltzw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -138,6 +138,15 @@
   <si>
     <t>Commencer a faire le frontend</t>
   </si>
+  <si>
+    <t>Debat en groupe sur comment travailler. Gonzalo voulait faire du LiveShare et moi du trunk based development. Nous avons fini par choisir trunk based</t>
+  </si>
+  <si>
+    <t>Commencement de faire la route GET / (la requette se fait mais rien n'est return)</t>
+  </si>
+  <si>
+    <t>continue(setup) · romaindenis1/P_PassionLecture@6796427</t>
+  </si>
 </sst>
 </file>
 
@@ -151,7 +160,7 @@
     <numFmt numFmtId="168" formatCode="00\ &quot;min&quot;"/>
     <numFmt numFmtId="169" formatCode="hh\ &quot;h&quot;\ mm\ &quot;min&quot;"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -226,6 +235,14 @@
     <font>
       <sz val="14"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -317,10 +334,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -456,8 +474,13 @@
     <xf numFmtId="20" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="17">
@@ -1064,10 +1087,10 @@
                 <c:formatCode>hh\ "h"\ mm\ "min"</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2.7777777777777776E-2</c:v>
+                  <c:v>5.9027777777777776E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7361111111111112E-2</c:v>
+                  <c:v>4.8611111111111112E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1998,7 +2021,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2051,7 +2074,7 @@
       </c>
       <c r="C3" s="22" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 1 heurs 30 minutes</v>
+        <v>0 jours 3 heurs 0 minutes</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="3"/>
@@ -2070,11 +2093,11 @@
       </c>
       <c r="D4" s="22">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="E4" s="40">
         <f>SUM(C4:D4)</f>
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -2186,16 +2209,24 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="str">
+    <row r="10" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
         <f>IF(ISBLANK(B10),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B10))</f>
-        <v/>
-      </c>
-      <c r="B10" s="46"/>
+        <v>15</v>
+      </c>
+      <c r="B10" s="46">
+        <v>45756</v>
+      </c>
       <c r="C10" s="47"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="36"/>
+      <c r="D10" s="48">
+        <v>45</v>
+      </c>
+      <c r="E10" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="36" t="s">
+        <v>32</v>
+      </c>
       <c r="G10" s="55"/>
       <c r="M10" t="s">
         <v>5</v>
@@ -2208,16 +2239,26 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="str">
+      <c r="A11" s="16">
         <f>IF(ISBLANK(B11),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B11))</f>
-        <v/>
-      </c>
-      <c r="B11" s="50"/>
+        <v>15</v>
+      </c>
+      <c r="B11" s="50">
+        <v>45756</v>
+      </c>
       <c r="C11" s="51"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="56"/>
+      <c r="D11" s="52">
+        <v>45</v>
+      </c>
+      <c r="E11" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="59" t="s">
+        <v>34</v>
+      </c>
       <c r="M11" t="s">
         <v>6</v>
       </c>
@@ -8571,10 +8612,13 @@
       <formula1>$M$7:$M$15</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="G11" r:id="rId1" display="https://github.com/romaindenis1/P_PassionLecture/commit/67964277861a469e61e5c95f5f0e83f3f24bb9f3" xr:uid="{B636FB31-3855-4C23-B2AE-D907A7E5F697}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -8616,7 +8660,7 @@
       </c>
       <c r="B4">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C4,'Journal de travail'!$D$7:$D$532)</f>
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="C4" s="25" t="str">
         <f>'Journal de travail'!M8</f>
@@ -8624,7 +8668,7 @@
       </c>
       <c r="D4" s="33">
         <f>(A4+B4)/1440</f>
-        <v>2.7777777777777776E-2</v>
+        <v>5.9027777777777776E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -8634,7 +8678,7 @@
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="C5" s="41" t="str">
         <f>'Journal de travail'!M9</f>
@@ -8642,7 +8686,7 @@
       </c>
       <c r="D5" s="33">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>1.7361111111111112E-2</v>
+        <v>4.8611111111111112E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -8759,7 +8803,7 @@
       </c>
       <c r="D12" s="34">
         <f>SUM(D4:D11)</f>
-        <v>6.25E-2</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -8773,12 +8817,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9005,20 +9051,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9043,12 +9090,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Journaux/Journal-de-Travail_RomainDenis.xlsx
+++ b/Journaux/Journal-de-Travail_RomainDenis.xlsx
@@ -5,13 +5,13 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ps04egl\Documents\GitHub\P_PassionLecture\Journaux\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\po51oro\Documents\GitHub\P_WEB295\Journaux\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FCA1831-A5C4-4C68-8C2E-1891C374DDB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A2A2ED-1577-43C0-99C9-D32BD4D45EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Mvap2W10CJFFJsnvkGXSiMLvpngxTMJbJsIKFe7Hzjn0XDcmjGuvBC2FjUCZ/hpRpUhUrG1T4kBlDAIo3yqmSQ==" workbookSaltValue="KXjgXOcsUZI/j7UgPKltzw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
+    <workbookView xWindow="43200" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -146,6 +146,12 @@
   </si>
   <si>
     <t>continue(setup) · romaindenis1/P_PassionLecture@6796427</t>
+  </si>
+  <si>
+    <t>Connecter le frontend et backend</t>
+  </si>
+  <si>
+    <t>Fait les images, et la page userView</t>
   </si>
 </sst>
 </file>
@@ -467,16 +473,16 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="20" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1090,7 +1096,7 @@
                   <c:v>5.9027777777777776E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.8611111111111112E-2</c:v>
+                  <c:v>8.6805555555555552E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2021,7 +2027,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2056,11 +2062,11 @@
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
       <c r="F2" s="5" t="s">
         <v>2</v>
       </c>
@@ -2074,7 +2080,7 @@
       </c>
       <c r="C3" s="22" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 3 heurs 0 minutes</v>
+        <v>0 jours 3 heurs 55 minutes</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="3"/>
@@ -2093,20 +2099,20 @@
       </c>
       <c r="D4" s="22">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>180</v>
+        <v>235</v>
       </c>
       <c r="E4" s="40">
         <f>SUM(C4:D4)</f>
-        <v>180</v>
+        <v>235</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C5" s="58" t="s">
+      <c r="C5" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="58"/>
+      <c r="D5" s="59"/>
     </row>
     <row r="6" spans="1:15" s="20" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
@@ -2256,7 +2262,7 @@
       <c r="F11" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="59" t="s">
+      <c r="G11" s="57" t="s">
         <v>34</v>
       </c>
       <c r="M11" t="s">
@@ -2291,15 +2297,23 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="str">
+      <c r="A13" s="16">
         <f>IF(ISBLANK(B13),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B13))</f>
-        <v/>
-      </c>
-      <c r="B13" s="50"/>
+        <v>18</v>
+      </c>
+      <c r="B13" s="50">
+        <v>45776</v>
+      </c>
       <c r="C13" s="51"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="36"/>
+      <c r="D13" s="52">
+        <v>30</v>
+      </c>
+      <c r="E13" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="36" t="s">
+        <v>35</v>
+      </c>
       <c r="G13" s="56"/>
       <c r="M13" t="s">
         <v>8</v>
@@ -2312,15 +2326,23 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="str">
+      <c r="A14" s="8">
         <f>IF(ISBLANK(B14),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B14))</f>
-        <v/>
-      </c>
-      <c r="B14" s="46"/>
+        <v>18</v>
+      </c>
+      <c r="B14" s="46">
+        <v>45776</v>
+      </c>
       <c r="C14" s="47"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="36"/>
+      <c r="D14" s="48">
+        <v>25</v>
+      </c>
+      <c r="E14" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="36" t="s">
+        <v>36</v>
+      </c>
       <c r="G14" s="55"/>
       <c r="M14" t="s">
         <v>21</v>
@@ -8678,7 +8700,7 @@
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
-        <v>70</v>
+        <v>125</v>
       </c>
       <c r="C5" s="41" t="str">
         <f>'Journal de travail'!M9</f>
@@ -8686,7 +8708,7 @@
       </c>
       <c r="D5" s="33">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>4.8611111111111112E-2</v>
+        <v>8.6805555555555552E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -8803,7 +8825,7 @@
       </c>
       <c r="D12" s="34">
         <f>SUM(D4:D11)</f>
-        <v>0.125</v>
+        <v>0.16319444444444442</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -8828,6 +8850,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D4F20F00DBE2EE49BE9523363A2DF18B" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="313dbdbec26224d1c2bb7e3c488b2a4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="99ffe1f3-7857-457f-add0-5bdef636f38d" xmlns:ns3="be0d3259-a7ce-4623-88ec-81594dfcbc1c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4739345e3d2c6be79c5ae1a54d02a4a7" ns2:_="" ns3:_="">
     <xsd:import namespace="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
@@ -9050,15 +9081,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
   <ds:schemaRefs>
@@ -9071,6 +9093,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2FB702A-DCBD-43A8-A34C-6000FD8861AD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9087,12 +9117,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Journaux/Journal-de-Travail_RomainDenis.xlsx
+++ b/Journaux/Journal-de-Travail_RomainDenis.xlsx
@@ -5,13 +5,13 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\po51oro\Documents\GitHub\P_WEB295\Journaux\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ps04egl\Documents\GitHub\P_PassionLecture\Journaux\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A2A2ED-1577-43C0-99C9-D32BD4D45EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA81F8C-8CED-49F3-90AB-E1D4E6A1A1F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Mvap2W10CJFFJsnvkGXSiMLvpngxTMJbJsIKFe7Hzjn0XDcmjGuvBC2FjUCZ/hpRpUhUrG1T4kBlDAIo3yqmSQ==" workbookSaltValue="KXjgXOcsUZI/j7UgPKltzw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="43200" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -152,6 +152,24 @@
   </si>
   <si>
     <t>Fait les images, et la page userView</t>
+  </si>
+  <si>
+    <t>Fait le filtrage de livre par category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/romaindenis1/P_PassionLecture/commit/0460481cda01e3d85e6c75816d5cc83d7f290e8b </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/romaindenis1/P_PassionLecture/commit/62efe3b5c140a611dbf0a62bb986f938714481e7 </t>
+  </si>
+  <si>
+    <t>Fait la page de detail d'un livre</t>
+  </si>
+  <si>
+    <t>Afficher les commentaires dans la page de details de livre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/romaindenis1/P_PassionLecture/commit/5f5d6680a65c1e2f7dbd9f830eed7fc11c3911fa </t>
   </si>
 </sst>
 </file>
@@ -344,7 +362,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -474,6 +492,10 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1096,7 +1118,7 @@
                   <c:v>5.9027777777777776E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.6805555555555552E-2</c:v>
+                  <c:v>0.2048611111111111</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2027,7 +2049,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2062,11 +2084,11 @@
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
       <c r="F2" s="5" t="s">
         <v>2</v>
       </c>
@@ -2080,7 +2102,7 @@
       </c>
       <c r="C3" s="22" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 3 heurs 55 minutes</v>
+        <v>0 jours 6 heurs 45 minutes</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="3"/>
@@ -2095,24 +2117,24 @@
       <c r="B4" s="5"/>
       <c r="C4" s="22">
         <f>SUBTOTAL(9,$C$7:$C$531)*60</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D4" s="22">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>235</v>
+        <v>345</v>
       </c>
       <c r="E4" s="40">
         <f>SUM(C4:D4)</f>
-        <v>235</v>
+        <v>405</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="59"/>
+      <c r="D5" s="60"/>
     </row>
     <row r="6" spans="1:15" s="20" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
@@ -2375,47 +2397,79 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="str">
+    <row r="16" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
         <f>IF(ISBLANK(B16),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B16))</f>
-        <v/>
-      </c>
-      <c r="B16" s="46"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="55"/>
+        <v>18</v>
+      </c>
+      <c r="B16" s="46">
+        <v>45777</v>
+      </c>
+      <c r="C16" s="47">
+        <v>1</v>
+      </c>
+      <c r="D16" s="48">
+        <v>30</v>
+      </c>
+      <c r="E16" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="58" t="s">
+        <v>38</v>
+      </c>
       <c r="O16">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="str">
+    <row r="17" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="16">
         <f>IF(ISBLANK(B17),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B17))</f>
-        <v/>
-      </c>
-      <c r="B17" s="50"/>
+        <v>18</v>
+      </c>
+      <c r="B17" s="50">
+        <v>45777</v>
+      </c>
       <c r="C17" s="51"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="56"/>
+      <c r="D17" s="52">
+        <v>45</v>
+      </c>
+      <c r="E17" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="57" t="s">
+        <v>39</v>
+      </c>
       <c r="O17">
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="str">
+    <row r="18" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
         <f>IF(ISBLANK(B18),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B18))</f>
-        <v/>
-      </c>
-      <c r="B18" s="46"/>
+        <v>18</v>
+      </c>
+      <c r="B18" s="46">
+        <v>45777</v>
+      </c>
       <c r="C18" s="47"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="55"/>
+      <c r="D18" s="48">
+        <v>35</v>
+      </c>
+      <c r="E18" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="58" t="s">
+        <v>42</v>
+      </c>
       <c r="O18">
         <v>50</v>
       </c>
@@ -8636,11 +8690,14 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="G11" r:id="rId1" display="https://github.com/romaindenis1/P_PassionLecture/commit/67964277861a469e61e5c95f5f0e83f3f24bb9f3" xr:uid="{B636FB31-3855-4C23-B2AE-D907A7E5F697}"/>
+    <hyperlink ref="G16" r:id="rId2" xr:uid="{0798C960-15CB-4179-BA50-5358C15BC3A0}"/>
+    <hyperlink ref="G17" r:id="rId3" xr:uid="{D71F3AED-FF2A-435A-9DF6-7E2D8FC30505}"/>
+    <hyperlink ref="G18" r:id="rId4" xr:uid="{44E50A3F-EC66-461A-B59A-058144C33842}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
@@ -8696,11 +8753,11 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$C$7:$C$532)*60</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
-        <v>125</v>
+        <v>235</v>
       </c>
       <c r="C5" s="41" t="str">
         <f>'Journal de travail'!M9</f>
@@ -8708,7 +8765,7 @@
       </c>
       <c r="D5" s="33">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>8.6805555555555552E-2</v>
+        <v>0.2048611111111111</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -8825,7 +8882,7 @@
       </c>
       <c r="D12" s="34">
         <f>SUM(D4:D11)</f>
-        <v>0.16319444444444442</v>
+        <v>0.28125</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">

--- a/Journaux/Journal-de-Travail_RomainDenis.xlsx
+++ b/Journaux/Journal-de-Travail_RomainDenis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ps04egl\Documents\GitHub\P_PassionLecture\Journaux\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA81F8C-8CED-49F3-90AB-E1D4E6A1A1F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A2EA992-A42B-4E11-8997-8A35DB0172B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Mvap2W10CJFFJsnvkGXSiMLvpngxTMJbJsIKFe7Hzjn0XDcmjGuvBC2FjUCZ/hpRpUhUrG1T4kBlDAIo3yqmSQ==" workbookSaltValue="KXjgXOcsUZI/j7UgPKltzw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -170,6 +170,18 @@
   </si>
   <si>
     <t xml:space="preserve">https://github.com/romaindenis1/P_PassionLecture/commit/5f5d6680a65c1e2f7dbd9f830eed7fc11c3911fa </t>
+  </si>
+  <si>
+    <t>Daily scrum, discusion sur qui fait quoi</t>
+  </si>
+  <si>
+    <t>Commencement de faire les commentaires POST</t>
+  </si>
+  <si>
+    <t>Peer programming avec gonzalo pour les cookies</t>
+  </si>
+  <si>
+    <t>Implementations des commentaires avec gonzalo</t>
   </si>
 </sst>
 </file>
@@ -1118,7 +1130,7 @@
                   <c:v>5.9027777777777776E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2048611111111111</c:v>
+                  <c:v>0.34375</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1127,7 +1139,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.7361111111111112E-2</c:v>
+                  <c:v>3.4722222222222224E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -2049,7 +2061,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
+      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2102,7 +2114,7 @@
       </c>
       <c r="C3" s="22" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 6 heurs 45 minutes</v>
+        <v>0 jours 10 heurs 30 minutes</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="3"/>
@@ -2117,15 +2129,15 @@
       <c r="B4" s="5"/>
       <c r="C4" s="22">
         <f>SUBTOTAL(9,$C$7:$C$531)*60</f>
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="D4" s="22">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>345</v>
+        <v>450</v>
       </c>
       <c r="E4" s="40">
         <f>SUM(C4:D4)</f>
-        <v>405</v>
+        <v>630</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -2475,42 +2487,68 @@
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="str">
+      <c r="A19" s="16">
         <f>IF(ISBLANK(B19),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B19))</f>
-        <v/>
-      </c>
-      <c r="B19" s="50"/>
+        <v>19</v>
+      </c>
+      <c r="B19" s="50">
+        <v>45783</v>
+      </c>
       <c r="C19" s="51"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="36"/>
+      <c r="D19" s="52">
+        <v>25</v>
+      </c>
+      <c r="E19" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="36" t="s">
+        <v>43</v>
+      </c>
       <c r="G19" s="56"/>
       <c r="O19">
         <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="str">
+      <c r="A20" s="8">
         <f>IF(ISBLANK(B20),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B20))</f>
-        <v/>
-      </c>
-      <c r="B20" s="46"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="36"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="46">
+        <v>45783</v>
+      </c>
+      <c r="C20" s="47">
+        <v>1</v>
+      </c>
+      <c r="D20" s="48">
+        <v>30</v>
+      </c>
+      <c r="E20" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="36" t="s">
+        <v>44</v>
+      </c>
       <c r="G20" s="55"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="str">
+      <c r="A21" s="16">
         <f>IF(ISBLANK(B21),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B21))</f>
-        <v/>
-      </c>
-      <c r="B21" s="50"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="50">
+        <v>45783</v>
+      </c>
       <c r="C21" s="51"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="36"/>
+      <c r="D21" s="52">
+        <v>45</v>
+      </c>
+      <c r="E21" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="36" t="s">
+        <v>45</v>
+      </c>
       <c r="G21" s="56"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -2519,10 +2557,18 @@
         <v/>
       </c>
       <c r="B22" s="46"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="36"/>
+      <c r="C22" s="47">
+        <v>1</v>
+      </c>
+      <c r="D22" s="48">
+        <v>5</v>
+      </c>
+      <c r="E22" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="36" t="s">
+        <v>46</v>
+      </c>
       <c r="G22" s="55"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -8753,11 +8799,11 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$C$7:$C$532)*60</f>
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
-        <v>235</v>
+        <v>315</v>
       </c>
       <c r="C5" s="41" t="str">
         <f>'Journal de travail'!M9</f>
@@ -8765,7 +8811,7 @@
       </c>
       <c r="D5" s="33">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>0.2048611111111111</v>
+        <v>0.34375</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -8811,7 +8857,7 @@
       </c>
       <c r="B8">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C8,'Journal de travail'!$D$7:$D$532)</f>
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="C8" s="28" t="str">
         <f>'Journal de travail'!M12</f>
@@ -8819,7 +8865,7 @@
       </c>
       <c r="D8" s="33">
         <f t="shared" si="0"/>
-        <v>1.7361111111111112E-2</v>
+        <v>3.4722222222222224E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -8882,7 +8928,7 @@
       </c>
       <c r="D12" s="34">
         <f>SUM(D4:D11)</f>
-        <v>0.28125</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -8907,15 +8953,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D4F20F00DBE2EE49BE9523363A2DF18B" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="313dbdbec26224d1c2bb7e3c488b2a4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="99ffe1f3-7857-457f-add0-5bdef636f38d" xmlns:ns3="be0d3259-a7ce-4623-88ec-81594dfcbc1c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4739345e3d2c6be79c5ae1a54d02a4a7" ns2:_="" ns3:_="">
     <xsd:import namespace="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
@@ -9138,6 +9175,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
   <ds:schemaRefs>
@@ -9150,14 +9196,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2FB702A-DCBD-43A8-A34C-6000FD8861AD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9174,4 +9212,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Journaux/Journal-de-Travail_RomainDenis.xlsx
+++ b/Journaux/Journal-de-Travail_RomainDenis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ps04egl\Documents\GitHub\P_PassionLecture\Journaux\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A2EA992-A42B-4E11-8997-8A35DB0172B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{830B6D2D-A71C-43A6-8E2D-2FB4DF921C47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Mvap2W10CJFFJsnvkGXSiMLvpngxTMJbJsIKFe7Hzjn0XDcmjGuvBC2FjUCZ/hpRpUhUrG1T4kBlDAIo3yqmSQ==" workbookSaltValue="KXjgXOcsUZI/j7UgPKltzw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="53">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -172,9 +172,6 @@
     <t xml:space="preserve">https://github.com/romaindenis1/P_PassionLecture/commit/5f5d6680a65c1e2f7dbd9f830eed7fc11c3911fa </t>
   </si>
   <si>
-    <t>Daily scrum, discusion sur qui fait quoi</t>
-  </si>
-  <si>
     <t>Commencement de faire les commentaires POST</t>
   </si>
   <si>
@@ -182,6 +179,27 @@
   </si>
   <si>
     <t>Implementations des commentaires avec gonzalo</t>
+  </si>
+  <si>
+    <t>Daily scrum</t>
+  </si>
+  <si>
+    <t>Daily scrum, discussion sur qui fait quoi</t>
+  </si>
+  <si>
+    <t>Relgement du bug mon compte apres avoir register avec gonzalo</t>
+  </si>
+  <si>
+    <t>Affichage de livre par le user qui la crée</t>
+  </si>
+  <si>
+    <t>Bouton pour ajouter un livre</t>
+  </si>
+  <si>
+    <t>Reglement de bug des relations dans la page de user</t>
+  </si>
+  <si>
+    <t>Peer programming pour regler problemes de CSS</t>
   </si>
 </sst>
 </file>
@@ -1130,16 +1148,16 @@
                   <c:v>5.9027777777777776E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.34375</c:v>
+                  <c:v>0.44791666666666669</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>6.9444444444444441E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.4722222222222224E-2</c:v>
+                  <c:v>4.8611111111111112E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -2061,7 +2079,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
+      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2114,7 +2132,7 @@
       </c>
       <c r="C3" s="22" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 10 heurs 30 minutes</v>
+        <v>0 jours 13 heurs 30 minutes</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="3"/>
@@ -2133,11 +2151,11 @@
       </c>
       <c r="D4" s="22">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>450</v>
+        <v>630</v>
       </c>
       <c r="E4" s="40">
         <f>SUM(C4:D4)</f>
-        <v>630</v>
+        <v>810</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -2502,7 +2520,7 @@
         <v>7</v>
       </c>
       <c r="F19" s="36" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G19" s="56"/>
       <c r="O19">
@@ -2527,7 +2545,7 @@
         <v>4</v>
       </c>
       <c r="F20" s="36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G20" s="55"/>
     </row>
@@ -2547,16 +2565,18 @@
         <v>4</v>
       </c>
       <c r="F21" s="36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G21" s="56"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="str">
+      <c r="A22" s="8">
         <f>IF(ISBLANK(B22),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B22))</f>
-        <v/>
-      </c>
-      <c r="B22" s="46"/>
+        <v>19</v>
+      </c>
+      <c r="B22" s="46">
+        <v>45783</v>
+      </c>
       <c r="C22" s="47">
         <v>1</v>
       </c>
@@ -2567,92 +2587,148 @@
         <v>4</v>
       </c>
       <c r="F22" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22" s="55"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="16">
+        <f>IF(ISBLANK(B23),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B23))</f>
+        <v>19</v>
+      </c>
+      <c r="B23" s="50">
+        <v>45784</v>
+      </c>
+      <c r="C23" s="51"/>
+      <c r="D23" s="52">
+        <v>20</v>
+      </c>
+      <c r="E23" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="G22" s="55"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="str">
-        <f>IF(ISBLANK(B23),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B23))</f>
-        <v/>
-      </c>
-      <c r="B23" s="50"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="36"/>
       <c r="G23" s="56"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="str">
+      <c r="A24" s="8">
         <f>IF(ISBLANK(B24),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B24))</f>
-        <v/>
-      </c>
-      <c r="B24" s="46"/>
+        <v>19</v>
+      </c>
+      <c r="B24" s="46">
+        <v>45784</v>
+      </c>
       <c r="C24" s="47"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="36"/>
+      <c r="D24" s="48">
+        <v>30</v>
+      </c>
+      <c r="E24" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="36" t="s">
+        <v>48</v>
+      </c>
       <c r="G24" s="55"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="16" t="str">
+      <c r="A25" s="16">
         <f>IF(ISBLANK(B25),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B25))</f>
-        <v/>
-      </c>
-      <c r="B25" s="50"/>
+        <v>19</v>
+      </c>
+      <c r="B25" s="50">
+        <v>45784</v>
+      </c>
       <c r="C25" s="51"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="36"/>
+      <c r="D25" s="52">
+        <v>30</v>
+      </c>
+      <c r="E25" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="36" t="s">
+        <v>49</v>
+      </c>
       <c r="G25" s="56"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="str">
+      <c r="A26" s="8">
         <f>IF(ISBLANK(B26),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B26))</f>
-        <v/>
-      </c>
-      <c r="B26" s="46"/>
+        <v>19</v>
+      </c>
+      <c r="B26" s="46">
+        <v>45784</v>
+      </c>
       <c r="C26" s="47"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="36"/>
+      <c r="D26" s="48">
+        <v>25</v>
+      </c>
+      <c r="E26" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="36" t="s">
+        <v>50</v>
+      </c>
       <c r="G26" s="55"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="16" t="str">
+      <c r="A27" s="16">
         <f>IF(ISBLANK(B27),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B27))</f>
-        <v/>
-      </c>
-      <c r="B27" s="50"/>
+        <v>19</v>
+      </c>
+      <c r="B27" s="50">
+        <v>45784</v>
+      </c>
       <c r="C27" s="51"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="36"/>
+      <c r="D27" s="52">
+        <v>40</v>
+      </c>
+      <c r="E27" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="36" t="s">
+        <v>51</v>
+      </c>
       <c r="G27" s="56"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="str">
+      <c r="A28" s="8">
         <f>IF(ISBLANK(B28),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B28))</f>
-        <v/>
-      </c>
-      <c r="B28" s="46"/>
+        <v>19</v>
+      </c>
+      <c r="B28" s="46">
+        <v>45784</v>
+      </c>
       <c r="C28" s="47"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="35"/>
+      <c r="D28" s="48">
+        <v>25</v>
+      </c>
+      <c r="E28" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="35" t="s">
+        <v>52</v>
+      </c>
       <c r="G28" s="55"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="16" t="str">
+      <c r="A29" s="16">
         <f>IF(ISBLANK(B29),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B29))</f>
-        <v/>
-      </c>
-      <c r="B29" s="50"/>
+        <v>19</v>
+      </c>
+      <c r="B29" s="50">
+        <v>45784</v>
+      </c>
       <c r="C29" s="51"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="35"/>
+      <c r="D29" s="52">
+        <v>10</v>
+      </c>
+      <c r="E29" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" s="35" t="s">
+        <v>0</v>
+      </c>
       <c r="G29" s="56"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -8803,7 +8879,7 @@
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
-        <v>315</v>
+        <v>465</v>
       </c>
       <c r="C5" s="41" t="str">
         <f>'Journal de travail'!M9</f>
@@ -8811,7 +8887,7 @@
       </c>
       <c r="D5" s="33">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>0.34375</v>
+        <v>0.44791666666666669</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -8839,7 +8915,7 @@
       </c>
       <c r="B7">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C7,'Journal de travail'!$D$7:$D$532)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C7" s="27" t="str">
         <f>'Journal de travail'!M11</f>
@@ -8847,7 +8923,7 @@
       </c>
       <c r="D7" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.9444444444444441E-3</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -8857,7 +8933,7 @@
       </c>
       <c r="B8">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C8,'Journal de travail'!$D$7:$D$532)</f>
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C8" s="28" t="str">
         <f>'Journal de travail'!M12</f>
@@ -8865,7 +8941,7 @@
       </c>
       <c r="D8" s="33">
         <f t="shared" si="0"/>
-        <v>3.4722222222222224E-2</v>
+        <v>4.8611111111111112E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -8928,7 +9004,7 @@
       </c>
       <c r="D12" s="34">
         <f>SUM(D4:D11)</f>
-        <v>0.4375</v>
+        <v>0.5625</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -8953,6 +9029,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D4F20F00DBE2EE49BE9523363A2DF18B" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="313dbdbec26224d1c2bb7e3c488b2a4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="99ffe1f3-7857-457f-add0-5bdef636f38d" xmlns:ns3="be0d3259-a7ce-4623-88ec-81594dfcbc1c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4739345e3d2c6be79c5ae1a54d02a4a7" ns2:_="" ns3:_="">
     <xsd:import namespace="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
@@ -9175,15 +9260,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
   <ds:schemaRefs>
@@ -9196,6 +9272,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2FB702A-DCBD-43A8-A34C-6000FD8861AD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9212,12 +9296,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Journaux/Journal-de-Travail_RomainDenis.xlsx
+++ b/Journaux/Journal-de-Travail_RomainDenis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ps04egl\Documents\GitHub\P_PassionLecture\Journaux\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{830B6D2D-A71C-43A6-8E2D-2FB4DF921C47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{662E751C-0B2E-46B7-9E2C-4F29EF1F5EA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Mvap2W10CJFFJsnvkGXSiMLvpngxTMJbJsIKFe7Hzjn0XDcmjGuvBC2FjUCZ/hpRpUhUrG1T4kBlDAIo3yqmSQ==" workbookSaltValue="KXjgXOcsUZI/j7UgPKltzw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="56">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -200,6 +200,15 @@
   </si>
   <si>
     <t>Peer programming pour regler problemes de CSS</t>
+  </si>
+  <si>
+    <t>Ajout de livre fait</t>
+  </si>
+  <si>
+    <t>Bugfix de l'user_fk qui ne se metait pas dans la base de donnes</t>
+  </si>
+  <si>
+    <t>Bugfix du createur du livre qui était inconnu meme avec user_fk qui marchait</t>
   </si>
 </sst>
 </file>
@@ -1148,7 +1157,7 @@
                   <c:v>5.9027777777777776E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.44791666666666669</c:v>
+                  <c:v>0.57638888888888884</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2078,8 +2087,8 @@
   <dimension ref="A1:O532"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
+      <pane ySplit="6" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2132,7 +2141,7 @@
       </c>
       <c r="C3" s="22" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 13 heurs 30 minutes</v>
+        <v>0 jours 16 heurs 34 minutes</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="3"/>
@@ -2147,15 +2156,15 @@
       <c r="B4" s="5"/>
       <c r="C4" s="22">
         <f>SUBTOTAL(9,$C$7:$C$531)*60</f>
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="D4" s="22">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>630</v>
+        <v>695</v>
       </c>
       <c r="E4" s="40">
         <f>SUM(C4:D4)</f>
-        <v>810</v>
+        <v>995</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -2732,39 +2741,63 @@
       <c r="G29" s="56"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="str">
+      <c r="A30" s="8">
         <f>IF(ISBLANK(B30),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B30))</f>
-        <v/>
-      </c>
-      <c r="B30" s="46"/>
-      <c r="C30" s="47"/>
+        <v>20</v>
+      </c>
+      <c r="B30" s="46">
+        <v>45790</v>
+      </c>
+      <c r="C30" s="47">
+        <v>2</v>
+      </c>
       <c r="D30" s="48"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="36"/>
+      <c r="E30" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" s="36" t="s">
+        <v>53</v>
+      </c>
       <c r="G30" s="55"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="16" t="str">
+      <c r="A31" s="16">
         <f>IF(ISBLANK(B31),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B31))</f>
-        <v/>
-      </c>
-      <c r="B31" s="50"/>
+        <v>20</v>
+      </c>
+      <c r="B31" s="50">
+        <v>45790</v>
+      </c>
       <c r="C31" s="51"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="35"/>
+      <c r="D31" s="52">
+        <v>35</v>
+      </c>
+      <c r="E31" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31" s="35" t="s">
+        <v>54</v>
+      </c>
       <c r="G31" s="56"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="str">
+      <c r="A32" s="8">
         <f>IF(ISBLANK(B32),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B32))</f>
-        <v/>
-      </c>
-      <c r="B32" s="46"/>
+        <v>20</v>
+      </c>
+      <c r="B32" s="46">
+        <v>45790</v>
+      </c>
       <c r="C32" s="47"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="36"/>
+      <c r="D32" s="48">
+        <v>30</v>
+      </c>
+      <c r="E32" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="36" t="s">
+        <v>55</v>
+      </c>
       <c r="G32" s="55"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -8875,11 +8908,11 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$C$7:$C$532)*60</f>
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
-        <v>465</v>
+        <v>530</v>
       </c>
       <c r="C5" s="41" t="str">
         <f>'Journal de travail'!M9</f>
@@ -8887,7 +8920,7 @@
       </c>
       <c r="D5" s="33">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>0.44791666666666669</v>
+        <v>0.57638888888888884</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -9004,7 +9037,7 @@
       </c>
       <c r="D12" s="34">
         <f>SUM(D4:D11)</f>
-        <v>0.5625</v>
+        <v>0.69097222222222221</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -9029,15 +9062,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D4F20F00DBE2EE49BE9523363A2DF18B" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="313dbdbec26224d1c2bb7e3c488b2a4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="99ffe1f3-7857-457f-add0-5bdef636f38d" xmlns:ns3="be0d3259-a7ce-4623-88ec-81594dfcbc1c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4739345e3d2c6be79c5ae1a54d02a4a7" ns2:_="" ns3:_="">
     <xsd:import namespace="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
@@ -9260,6 +9284,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
   <ds:schemaRefs>
@@ -9272,14 +9305,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2FB702A-DCBD-43A8-A34C-6000FD8861AD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9296,4 +9321,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Journaux/Journal-de-Travail_RomainDenis.xlsx
+++ b/Journaux/Journal-de-Travail_RomainDenis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ps04egl\Documents\GitHub\P_PassionLecture\Journaux\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{662E751C-0B2E-46B7-9E2C-4F29EF1F5EA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FD34FFD-320B-4585-9401-B4506C456BF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Mvap2W10CJFFJsnvkGXSiMLvpngxTMJbJsIKFe7Hzjn0XDcmjGuvBC2FjUCZ/hpRpUhUrG1T4kBlDAIo3yqmSQ==" workbookSaltValue="KXjgXOcsUZI/j7UgPKltzw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="58">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -209,6 +209,12 @@
   </si>
   <si>
     <t>Bugfix du createur du livre qui était inconnu meme avec user_fk qui marchait</t>
+  </si>
+  <si>
+    <t>Travail sur le rapport</t>
+  </si>
+  <si>
+    <t>Demonstration de application au prof + discussion</t>
   </si>
 </sst>
 </file>
@@ -1160,10 +1166,10 @@
                   <c:v>0.57638888888888884</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1.3888888888888888E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.9444444444444441E-3</c:v>
+                  <c:v>0.14930555555555555</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>4.8611111111111112E-2</c:v>
@@ -2088,7 +2094,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
+      <selection pane="bottomLeft" activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2141,7 +2147,7 @@
       </c>
       <c r="C3" s="22" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 16 heurs 34 minutes</v>
+        <v>0 jours 20 heurs 19 minutes</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="3"/>
@@ -2156,15 +2162,15 @@
       <c r="B4" s="5"/>
       <c r="C4" s="22">
         <f>SUBTOTAL(9,$C$7:$C$531)*60</f>
-        <v>300</v>
+        <v>480</v>
       </c>
       <c r="D4" s="22">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>695</v>
+        <v>740</v>
       </c>
       <c r="E4" s="40">
         <f>SUM(C4:D4)</f>
-        <v>995</v>
+        <v>1220</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -2801,27 +2807,45 @@
       <c r="G32" s="55"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="16" t="str">
+      <c r="A33" s="16">
         <f>IF(ISBLANK(B33),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B33))</f>
-        <v/>
-      </c>
-      <c r="B33" s="50"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="52"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="35"/>
+        <v>22</v>
+      </c>
+      <c r="B33" s="50">
+        <v>45804</v>
+      </c>
+      <c r="C33" s="51">
+        <v>3</v>
+      </c>
+      <c r="D33" s="52">
+        <v>25</v>
+      </c>
+      <c r="E33" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="F33" s="35" t="s">
+        <v>56</v>
+      </c>
       <c r="G33" s="56"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="str">
+      <c r="A34" s="8">
         <f>IF(ISBLANK(B34),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B34))</f>
-        <v/>
-      </c>
-      <c r="B34" s="46"/>
+        <v>22</v>
+      </c>
+      <c r="B34" s="46">
+        <v>45804</v>
+      </c>
       <c r="C34" s="47"/>
-      <c r="D34" s="48"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="35"/>
+      <c r="D34" s="48">
+        <v>20</v>
+      </c>
+      <c r="E34" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="F34" s="35" t="s">
+        <v>57</v>
+      </c>
       <c r="G34" s="55"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -8930,7 +8954,7 @@
       </c>
       <c r="B6">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C6,'Journal de travail'!$D$7:$D$532)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C6" s="26" t="str">
         <f>'Journal de travail'!M10</f>
@@ -8938,17 +8962,17 @@
       </c>
       <c r="D6" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.3888888888888888E-2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C7,'Journal de travail'!$C$7:$C$532)*60</f>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="B7">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C7,'Journal de travail'!$D$7:$D$532)</f>
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C7" s="27" t="str">
         <f>'Journal de travail'!M11</f>
@@ -8956,7 +8980,7 @@
       </c>
       <c r="D7" s="33">
         <f t="shared" si="0"/>
-        <v>6.9444444444444441E-3</v>
+        <v>0.14930555555555555</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -9037,7 +9061,7 @@
       </c>
       <c r="D12" s="34">
         <f>SUM(D4:D11)</f>
-        <v>0.69097222222222221</v>
+        <v>0.84722222222222221</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -9062,6 +9086,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D4F20F00DBE2EE49BE9523363A2DF18B" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="313dbdbec26224d1c2bb7e3c488b2a4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="99ffe1f3-7857-457f-add0-5bdef636f38d" xmlns:ns3="be0d3259-a7ce-4623-88ec-81594dfcbc1c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4739345e3d2c6be79c5ae1a54d02a4a7" ns2:_="" ns3:_="">
     <xsd:import namespace="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
@@ -9284,15 +9317,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
   <ds:schemaRefs>
@@ -9305,6 +9329,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2FB702A-DCBD-43A8-A34C-6000FD8861AD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9321,12 +9353,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>